--- a/Data/Modeling Stage/Results/IMS/Non temporal models/simple_models_results_Date_threshold_100_1_replicas_SMOTE.xlsx
+++ b/Data/Modeling Stage/Results/IMS/Non temporal models/simple_models_results_Date_threshold_100_1_replicas_SMOTE.xlsx
@@ -17,7 +17,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="322">
+  <si>
+    <t>Baseline - Majority Class</t>
+  </si>
   <si>
     <t>KNN</t>
   </si>
@@ -43,9 +46,6 @@
     <t>SVM</t>
   </si>
   <si>
-    <t>Baseline - Majority Class</t>
-  </si>
-  <si>
     <t>Train Accuracy (F1 Score micro)</t>
   </si>
   <si>
@@ -76,886 +76,913 @@
     <t>Time</t>
   </si>
   <si>
+    <t>0.5+/-0.0</t>
+  </si>
+  <si>
+    <t>0.798</t>
+  </si>
+  <si>
+    <t>0.05+/-0.15</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>0.1+/-0.3</t>
+  </si>
+  <si>
+    <t>0.001+/-0.0</t>
+  </si>
+  <si>
     <t>1.0+/-0.0</t>
   </si>
   <si>
-    <t>0.88+/-0.0</t>
-  </si>
-  <si>
-    <t>0.766</t>
-  </si>
-  <si>
-    <t>0.816+/-0.01</t>
+    <t>0.883+/-0.0</t>
+  </si>
+  <si>
+    <t>0.775</t>
+  </si>
+  <si>
+    <t>0.82+/-0.012</t>
+  </si>
+  <si>
+    <t>0.464</t>
+  </si>
+  <si>
+    <t>0.981+/-0.006</t>
+  </si>
+  <si>
+    <t>0.749</t>
+  </si>
+  <si>
+    <t>0.002+/-0.0</t>
+  </si>
+  <si>
+    <t>0.744+/-0.001</t>
+  </si>
+  <si>
+    <t>0.743+/-0.0</t>
+  </si>
+  <si>
+    <t>0.722</t>
+  </si>
+  <si>
+    <t>0.741+/-0.002</t>
+  </si>
+  <si>
+    <t>0.741+/-0.015</t>
+  </si>
+  <si>
+    <t>0.395</t>
+  </si>
+  <si>
+    <t>0.752+/-0.002</t>
+  </si>
+  <si>
+    <t>0.749+/-0.009</t>
+  </si>
+  <si>
+    <t>0.72</t>
+  </si>
+  <si>
+    <t>0.104+/-0.004</t>
+  </si>
+  <si>
+    <t>0.66+/-0.001</t>
+  </si>
+  <si>
+    <t>0.659+/-0.0</t>
+  </si>
+  <si>
+    <t>0.566</t>
+  </si>
+  <si>
+    <t>0.631+/-0.002</t>
+  </si>
+  <si>
+    <t>0.631+/-0.01</t>
+  </si>
+  <si>
+    <t>0.277</t>
+  </si>
+  <si>
+    <t>0.768+/-0.005</t>
+  </si>
+  <si>
+    <t>0.769+/-0.015</t>
+  </si>
+  <si>
+    <t>0.717</t>
+  </si>
+  <si>
+    <t>0.006+/-0.001</t>
+  </si>
+  <si>
+    <t>0.703+/-0.001</t>
+  </si>
+  <si>
+    <t>0.702+/-0.0</t>
+  </si>
+  <si>
+    <t>0.661</t>
+  </si>
+  <si>
+    <t>0.696+/-0.001</t>
+  </si>
+  <si>
+    <t>0.696+/-0.011</t>
+  </si>
+  <si>
+    <t>0.332</t>
+  </si>
+  <si>
+    <t>0.718+/-0.003</t>
+  </si>
+  <si>
+    <t>0.717+/-0.01</t>
+  </si>
+  <si>
+    <t>0.675</t>
+  </si>
+  <si>
+    <t>0.008+/-0.001</t>
+  </si>
+  <si>
+    <t>0.928+/-0.004</t>
+  </si>
+  <si>
+    <t>0.893+/-0.0</t>
+  </si>
+  <si>
+    <t>0.853</t>
+  </si>
+  <si>
+    <t>0.913+/-0.011</t>
+  </si>
+  <si>
+    <t>0.873+/-0.013</t>
+  </si>
+  <si>
+    <t>0.603</t>
+  </si>
+  <si>
+    <t>0.946+/-0.013</t>
+  </si>
+  <si>
+    <t>0.92+/-0.016</t>
+  </si>
+  <si>
+    <t>0.789</t>
+  </si>
+  <si>
+    <t>3.881+/-0.811</t>
+  </si>
+  <si>
+    <t>0.941+/-0.002</t>
+  </si>
+  <si>
+    <t>0.884+/-0.0</t>
+  </si>
+  <si>
+    <t>0.854</t>
+  </si>
+  <si>
+    <t>0.929+/-0.004</t>
+  </si>
+  <si>
+    <t>0.871+/-0.013</t>
+  </si>
+  <si>
+    <t>0.61</t>
+  </si>
+  <si>
+    <t>0.956+/-0.005</t>
+  </si>
+  <si>
+    <t>0.901+/-0.01</t>
+  </si>
+  <si>
+    <t>0.76</t>
+  </si>
+  <si>
+    <t>0.127+/-0.01</t>
+  </si>
+  <si>
+    <t>0.931+/-0.004</t>
+  </si>
+  <si>
+    <t>0.878+/-0.0</t>
+  </si>
+  <si>
+    <t>0.847</t>
+  </si>
+  <si>
+    <t>0.918+/-0.008</t>
+  </si>
+  <si>
+    <t>0.866+/-0.019</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>0.947+/-0.015</t>
+  </si>
+  <si>
+    <t>0.895+/-0.018</t>
+  </si>
+  <si>
+    <t>0.728</t>
+  </si>
+  <si>
+    <t>0.168+/-0.007</t>
+  </si>
+  <si>
+    <t>0.89+/-0.001</t>
+  </si>
+  <si>
+    <t>0.879+/-0.0</t>
+  </si>
+  <si>
+    <t>0.829</t>
+  </si>
+  <si>
+    <t>0.85+/-0.001</t>
+  </si>
+  <si>
+    <t>0.838+/-0.012</t>
+  </si>
+  <si>
+    <t>0.552</t>
+  </si>
+  <si>
+    <t>0.948+/-0.001</t>
+  </si>
+  <si>
+    <t>0.94+/-0.005</t>
+  </si>
+  <si>
+    <t>0.805</t>
+  </si>
+  <si>
+    <t>20.621+/-0.3</t>
+  </si>
+  <si>
+    <t>0.85</t>
+  </si>
+  <si>
+    <t>0.0+/-0.0</t>
+  </si>
+  <si>
+    <t>0.89+/-0.0</t>
+  </si>
+  <si>
+    <t>0.78</t>
+  </si>
+  <si>
+    <t>0.825+/-0.011</t>
+  </si>
+  <si>
+    <t>0.38</t>
+  </si>
+  <si>
+    <t>0.99+/-0.004</t>
+  </si>
+  <si>
+    <t>0.738</t>
+  </si>
+  <si>
+    <t>0.762+/-0.002</t>
+  </si>
+  <si>
+    <t>0.761+/-0.0</t>
+  </si>
+  <si>
+    <t>0.755</t>
+  </si>
+  <si>
+    <t>0.759+/-0.002</t>
+  </si>
+  <si>
+    <t>0.758+/-0.015</t>
+  </si>
+  <si>
+    <t>0.355</t>
+  </si>
+  <si>
+    <t>0.768+/-0.002</t>
+  </si>
+  <si>
+    <t>0.766+/-0.022</t>
+  </si>
+  <si>
+    <t>0.774</t>
+  </si>
+  <si>
+    <t>0.188+/-0.011</t>
+  </si>
+  <si>
+    <t>0.705+/-0.002</t>
+  </si>
+  <si>
+    <t>0.705+/-0.0</t>
+  </si>
+  <si>
+    <t>0.651</t>
+  </si>
+  <si>
+    <t>0.687+/-0.004</t>
+  </si>
+  <si>
+    <t>0.688+/-0.012</t>
+  </si>
+  <si>
+    <t>0.262</t>
+  </si>
+  <si>
+    <t>0.754+/-0.007</t>
+  </si>
+  <si>
+    <t>0.752+/-0.016</t>
+  </si>
+  <si>
+    <t>0.005+/-0.001</t>
+  </si>
+  <si>
+    <t>0.749+/-0.002</t>
+  </si>
+  <si>
+    <t>0.748+/-0.0</t>
+  </si>
+  <si>
+    <t>0.715</t>
+  </si>
+  <si>
+    <t>0.744+/-0.002</t>
+  </si>
+  <si>
+    <t>0.744+/-0.017</t>
+  </si>
+  <si>
+    <t>0.301</t>
+  </si>
+  <si>
+    <t>0.758+/-0.002</t>
+  </si>
+  <si>
+    <t>0.757+/-0.013</t>
+  </si>
+  <si>
+    <t>0.685</t>
+  </si>
+  <si>
+    <t>0.924+/-0.004</t>
+  </si>
+  <si>
+    <t>0.896+/-0.0</t>
+  </si>
+  <si>
+    <t>0.912+/-0.014</t>
+  </si>
+  <si>
+    <t>0.88+/-0.014</t>
+  </si>
+  <si>
+    <t>0.51</t>
+  </si>
+  <si>
+    <t>0.939+/-0.02</t>
+  </si>
+  <si>
+    <t>0.917+/-0.022</t>
+  </si>
+  <si>
+    <t>3.591+/-0.712</t>
+  </si>
+  <si>
+    <t>0.939+/-0.004</t>
+  </si>
+  <si>
+    <t>0.891+/-0.0</t>
+  </si>
+  <si>
+    <t>0.844</t>
+  </si>
+  <si>
+    <t>0.915+/-0.006</t>
+  </si>
+  <si>
+    <t>0.866+/-0.011</t>
+  </si>
+  <si>
+    <t>0.488</t>
+  </si>
+  <si>
+    <t>0.967+/-0.005</t>
+  </si>
+  <si>
+    <t>0.925+/-0.01</t>
+  </si>
+  <si>
+    <t>0.817</t>
+  </si>
+  <si>
+    <t>0.145+/-0.006</t>
+  </si>
+  <si>
+    <t>0.933+/-0.003</t>
+  </si>
+  <si>
+    <t>0.886+/-0.0</t>
+  </si>
+  <si>
+    <t>0.83</t>
+  </si>
+  <si>
+    <t>0.9+/-0.006</t>
+  </si>
+  <si>
+    <t>0.854+/-0.01</t>
+  </si>
+  <si>
+    <t>0.459</t>
+  </si>
+  <si>
+    <t>0.973+/-0.006</t>
+  </si>
+  <si>
+    <t>0.932+/-0.013</t>
+  </si>
+  <si>
+    <t>0.753</t>
+  </si>
+  <si>
+    <t>0.209+/-0.008</t>
+  </si>
+  <si>
+    <t>0.889+/-0.001</t>
+  </si>
+  <si>
+    <t>0.823</t>
+  </si>
+  <si>
+    <t>0.841+/-0.001</t>
+  </si>
+  <si>
+    <t>0.83+/-0.01</t>
   </si>
   <si>
     <t>0.451</t>
   </si>
   <si>
-    <t>0.981+/-0.004</t>
-  </si>
-  <si>
-    <t>0.744</t>
-  </si>
-  <si>
-    <t>0.004+/-0.002</t>
-  </si>
-  <si>
-    <t>0.745+/-0.002</t>
-  </si>
-  <si>
-    <t>0.744+/-0.0</t>
-  </si>
-  <si>
-    <t>0.725</t>
-  </si>
-  <si>
-    <t>0.741+/-0.002</t>
-  </si>
-  <si>
-    <t>0.741+/-0.015</t>
-  </si>
-  <si>
-    <t>0.4</t>
-  </si>
-  <si>
-    <t>0.753+/-0.002</t>
-  </si>
-  <si>
-    <t>0.751+/-0.024</t>
-  </si>
-  <si>
-    <t>0.728</t>
-  </si>
-  <si>
-    <t>0.218+/-0.011</t>
-  </si>
-  <si>
-    <t>0.659+/-0.002</t>
-  </si>
-  <si>
-    <t>0.658+/-0.0</t>
-  </si>
-  <si>
-    <t>0.552</t>
-  </si>
-  <si>
-    <t>0.628+/-0.003</t>
-  </si>
-  <si>
-    <t>0.627+/-0.016</t>
-  </si>
-  <si>
-    <t>0.269</t>
-  </si>
-  <si>
-    <t>0.78+/-0.006</t>
-  </si>
-  <si>
-    <t>0.778+/-0.027</t>
-  </si>
-  <si>
-    <t>0.712</t>
-  </si>
-  <si>
-    <t>0.006+/-0.001</t>
-  </si>
-  <si>
-    <t>0.696+/-0.002</t>
-  </si>
-  <si>
-    <t>0.695+/-0.0</t>
-  </si>
-  <si>
-    <t>0.661</t>
-  </si>
-  <si>
-    <t>0.693+/-0.002</t>
-  </si>
-  <si>
-    <t>0.692+/-0.016</t>
-  </si>
-  <si>
-    <t>0.332</t>
+    <t>0.959+/-0.001</t>
+  </si>
+  <si>
+    <t>0.951+/-0.009</t>
+  </si>
+  <si>
+    <t>0.846</t>
+  </si>
+  <si>
+    <t>22.105+/-1.386</t>
+  </si>
+  <si>
+    <t>0.723</t>
+  </si>
+  <si>
+    <t>0.15+/-0.229</t>
+  </si>
+  <si>
+    <t>0.3+/-0.458</t>
+  </si>
+  <si>
+    <t>0.741+/-0.0</t>
+  </si>
+  <si>
+    <t>0.581</t>
+  </si>
+  <si>
+    <t>0.674+/-0.009</t>
+  </si>
+  <si>
+    <t>0.353</t>
+  </si>
+  <si>
+    <t>0.932+/-0.008</t>
+  </si>
+  <si>
+    <t>0.617</t>
+  </si>
+  <si>
+    <t>0.6+/-0.002</t>
+  </si>
+  <si>
+    <t>0.597+/-0.0</t>
+  </si>
+  <si>
+    <t>0.618</t>
+  </si>
+  <si>
+    <t>0.601+/-0.002</t>
+  </si>
+  <si>
+    <t>0.598+/-0.01</t>
+  </si>
+  <si>
+    <t>0.378</t>
+  </si>
+  <si>
+    <t>0.593+/-0.003</t>
+  </si>
+  <si>
+    <t>0.591+/-0.016</t>
+  </si>
+  <si>
+    <t>0.59</t>
+  </si>
+  <si>
+    <t>0.106+/-0.01</t>
+  </si>
+  <si>
+    <t>0.572+/-0.001</t>
+  </si>
+  <si>
+    <t>0.571+/-0.0</t>
+  </si>
+  <si>
+    <t>0.633</t>
+  </si>
+  <si>
+    <t>0.591+/-0.004</t>
+  </si>
+  <si>
+    <t>0.589+/-0.018</t>
+  </si>
+  <si>
+    <t>0.373</t>
+  </si>
+  <si>
+    <t>0.471+/-0.018</t>
+  </si>
+  <si>
+    <t>0.47+/-0.025</t>
+  </si>
+  <si>
+    <t>0.482</t>
+  </si>
+  <si>
+    <t>0.566+/-0.001</t>
+  </si>
+  <si>
+    <t>0.565+/-0.0</t>
+  </si>
+  <si>
+    <t>0.584</t>
+  </si>
+  <si>
+    <t>0.569+/-0.001</t>
+  </si>
+  <si>
+    <t>0.568+/-0.009</t>
+  </si>
+  <si>
+    <t>0.346</t>
+  </si>
+  <si>
+    <t>0.545+/-0.003</t>
+  </si>
+  <si>
+    <t>0.542+/-0.015</t>
+  </si>
+  <si>
+    <t>0.563</t>
+  </si>
+  <si>
+    <t>0.776+/-0.008</t>
+  </si>
+  <si>
+    <t>0.713+/-0.0</t>
+  </si>
+  <si>
+    <t>0.765+/-0.013</t>
+  </si>
+  <si>
+    <t>0.705+/-0.016</t>
+  </si>
+  <si>
+    <t>0.417</t>
+  </si>
+  <si>
+    <t>0.798+/-0.02</t>
+  </si>
+  <si>
+    <t>0.734+/-0.021</t>
+  </si>
+  <si>
+    <t>0.569</t>
+  </si>
+  <si>
+    <t>3.752+/-0.887</t>
+  </si>
+  <si>
+    <t>0.834+/-0.006</t>
+  </si>
+  <si>
+    <t>0.747+/-0.0</t>
+  </si>
+  <si>
+    <t>0.704</t>
+  </si>
+  <si>
+    <t>0.846+/-0.01</t>
+  </si>
+  <si>
+    <t>0.754+/-0.014</t>
+  </si>
+  <si>
+    <t>0.475</t>
+  </si>
+  <si>
+    <t>0.816+/-0.018</t>
+  </si>
+  <si>
+    <t>0.733+/-0.023</t>
+  </si>
+  <si>
+    <t>0.639</t>
+  </si>
+  <si>
+    <t>0.111+/-0.009</t>
+  </si>
+  <si>
+    <t>0.812+/-0.008</t>
+  </si>
+  <si>
+    <t>0.739+/-0.0</t>
+  </si>
+  <si>
+    <t>0.714</t>
+  </si>
+  <si>
+    <t>0.83+/-0.011</t>
+  </si>
+  <si>
+    <t>0.752+/-0.025</t>
+  </si>
+  <si>
+    <t>0.785+/-0.025</t>
+  </si>
+  <si>
+    <t>0.716+/-0.025</t>
+  </si>
+  <si>
+    <t>0.656</t>
+  </si>
+  <si>
+    <t>0.157+/-0.009</t>
+  </si>
+  <si>
+    <t>0.717+/-0.002</t>
+  </si>
+  <si>
+    <t>0.685+/-0.0</t>
+  </si>
+  <si>
+    <t>0.659</t>
+  </si>
+  <si>
+    <t>0.717+/-0.003</t>
+  </si>
+  <si>
+    <t>0.684+/-0.015</t>
+  </si>
+  <si>
+    <t>0.419</t>
+  </si>
+  <si>
+    <t>0.69+/-0.016</t>
+  </si>
+  <si>
+    <t>0.594</t>
+  </si>
+  <si>
+    <t>29.896+/-1.895</t>
+  </si>
+  <si>
+    <t>0.692</t>
+  </si>
+  <si>
+    <t>0.25+/-0.25</t>
+  </si>
+  <si>
+    <t>0.5+/-0.5</t>
+  </si>
+  <si>
+    <t>0.714+/-0.0</t>
+  </si>
+  <si>
+    <t>0.568</t>
+  </si>
+  <si>
+    <t>0.657+/-0.01</t>
+  </si>
+  <si>
+    <t>0.376</t>
+  </si>
+  <si>
+    <t>0.896+/-0.006</t>
+  </si>
+  <si>
+    <t>0.609</t>
+  </si>
+  <si>
+    <t>0.585+/-0.002</t>
+  </si>
+  <si>
+    <t>0.584+/-0.0</t>
+  </si>
+  <si>
+    <t>0.598</t>
+  </si>
+  <si>
+    <t>0.585+/-0.017</t>
+  </si>
+  <si>
+    <t>0.396</t>
+  </si>
+  <si>
+    <t>0.582+/-0.004</t>
+  </si>
+  <si>
+    <t>0.581+/-0.018</t>
+  </si>
+  <si>
+    <t>0.585</t>
+  </si>
+  <si>
+    <t>0.128+/-0.012</t>
+  </si>
+  <si>
+    <t>0.561+/-0.004</t>
+  </si>
+  <si>
+    <t>0.558+/-0.0</t>
+  </si>
+  <si>
+    <t>0.573+/-0.002</t>
+  </si>
+  <si>
+    <t>0.57+/-0.014</t>
+  </si>
+  <si>
+    <t>0.388</t>
+  </si>
+  <si>
+    <t>0.474+/-0.027</t>
+  </si>
+  <si>
+    <t>0.471+/-0.043</t>
+  </si>
+  <si>
+    <t>0.561+/-0.002</t>
+  </si>
+  <si>
+    <t>0.56+/-0.0</t>
+  </si>
+  <si>
+    <t>0.576</t>
+  </si>
+  <si>
+    <t>0.564+/-0.002</t>
+  </si>
+  <si>
+    <t>0.562+/-0.017</t>
+  </si>
+  <si>
+    <t>0.37</t>
+  </si>
+  <si>
+    <t>0.542+/-0.003</t>
+  </si>
+  <si>
+    <t>0.542+/-0.028</t>
+  </si>
+  <si>
+    <t>0.536</t>
+  </si>
+  <si>
+    <t>0.007+/-0.001</t>
+  </si>
+  <si>
+    <t>0.753+/-0.009</t>
+  </si>
+  <si>
+    <t>0.675+/-0.0</t>
+  </si>
+  <si>
+    <t>0.626</t>
+  </si>
+  <si>
+    <t>0.752+/-0.019</t>
+  </si>
+  <si>
+    <t>0.675+/-0.025</t>
+  </si>
+  <si>
+    <t>0.42</t>
+  </si>
+  <si>
+    <t>0.758+/-0.047</t>
+  </si>
+  <si>
+    <t>0.682+/-0.043</t>
+  </si>
+  <si>
+    <t>0.558</t>
+  </si>
+  <si>
+    <t>3.295+/-0.963</t>
+  </si>
+  <si>
+    <t>0.803+/-0.014</t>
+  </si>
+  <si>
+    <t>0.701+/-0.0</t>
+  </si>
+  <si>
+    <t>0.805+/-0.015</t>
+  </si>
+  <si>
+    <t>0.7+/-0.011</t>
+  </si>
+  <si>
+    <t>0.481</t>
+  </si>
+  <si>
+    <t>0.8+/-0.032</t>
+  </si>
+  <si>
+    <t>0.705+/-0.037</t>
+  </si>
+  <si>
+    <t>0.674</t>
+  </si>
+  <si>
+    <t>0.115+/-0.01</t>
+  </si>
+  <si>
+    <t>0.788+/-0.011</t>
+  </si>
+  <si>
+    <t>0.696+/-0.0</t>
+  </si>
+  <si>
+    <t>0.789+/-0.015</t>
+  </si>
+  <si>
+    <t>0.697+/-0.022</t>
+  </si>
+  <si>
+    <t>0.788+/-0.037</t>
+  </si>
+  <si>
+    <t>0.697+/-0.035</t>
+  </si>
+  <si>
+    <t>0.668</t>
+  </si>
+  <si>
+    <t>0.165+/-0.004</t>
+  </si>
+  <si>
+    <t>0.706+/-0.002</t>
+  </si>
+  <si>
+    <t>0.667+/-0.0</t>
+  </si>
+  <si>
+    <t>0.636</t>
   </si>
   <si>
     <t>0.706+/-0.003</t>
   </si>
   <si>
-    <t>0.705+/-0.027</t>
-  </si>
-  <si>
-    <t>0.675</t>
-  </si>
-  <si>
-    <t>0.008+/-0.001</t>
-  </si>
-  <si>
-    <t>0.923+/-0.006</t>
-  </si>
-  <si>
-    <t>0.892+/-0.0</t>
-  </si>
-  <si>
-    <t>0.853</t>
-  </si>
-  <si>
-    <t>0.901+/-0.013</t>
-  </si>
-  <si>
-    <t>0.867+/-0.014</t>
-  </si>
-  <si>
-    <t>0.626</t>
-  </si>
-  <si>
-    <t>0.952+/-0.015</t>
-  </si>
-  <si>
-    <t>0.926+/-0.015</t>
-  </si>
-  <si>
-    <t>4.812+/-2.011</t>
-  </si>
-  <si>
-    <t>0.941+/-0.003</t>
-  </si>
-  <si>
-    <t>0.882+/-0.0</t>
-  </si>
-  <si>
-    <t>0.825</t>
-  </si>
-  <si>
-    <t>0.921+/-0.006</t>
-  </si>
-  <si>
-    <t>0.861+/-0.014</t>
-  </si>
-  <si>
-    <t>0.547</t>
-  </si>
-  <si>
-    <t>0.966+/-0.005</t>
-  </si>
-  <si>
-    <t>0.91+/-0.013</t>
-  </si>
-  <si>
-    <t>0.765</t>
-  </si>
-  <si>
-    <t>0.18+/-0.016</t>
-  </si>
-  <si>
-    <t>0.929+/-0.005</t>
-  </si>
-  <si>
-    <t>0.871+/-0.0</t>
-  </si>
-  <si>
-    <t>0.833</t>
-  </si>
-  <si>
-    <t>0.908+/-0.01</t>
-  </si>
-  <si>
-    <t>0.851+/-0.014</t>
-  </si>
-  <si>
-    <t>0.561</t>
-  </si>
-  <si>
-    <t>0.954+/-0.01</t>
-  </si>
-  <si>
-    <t>0.9+/-0.021</t>
-  </si>
-  <si>
-    <t>0.781</t>
-  </si>
-  <si>
-    <t>0.234+/-0.015</t>
-  </si>
-  <si>
-    <t>0.887+/-0.001</t>
-  </si>
-  <si>
-    <t>0.875+/-0.0</t>
-  </si>
-  <si>
-    <t>0.846+/-0.001</t>
-  </si>
-  <si>
-    <t>0.834+/-0.012</t>
-  </si>
-  <si>
-    <t>0.544</t>
-  </si>
-  <si>
-    <t>0.947+/-0.002</t>
-  </si>
-  <si>
-    <t>0.935+/-0.009</t>
-  </si>
-  <si>
-    <t>0.811</t>
-  </si>
-  <si>
-    <t>30.417+/-2.529</t>
-  </si>
-  <si>
-    <t>0.894+/-0.0</t>
-  </si>
-  <si>
-    <t>0.78</t>
-  </si>
-  <si>
-    <t>0.829+/-0.012</t>
-  </si>
-  <si>
-    <t>0.378</t>
-  </si>
-  <si>
-    <t>0.992+/-0.004</t>
-  </si>
-  <si>
-    <t>0.003+/-0.001</t>
-  </si>
-  <si>
-    <t>0.763+/-0.001</t>
-  </si>
-  <si>
-    <t>0.761+/-0.0</t>
-  </si>
-  <si>
-    <t>0.749</t>
-  </si>
-  <si>
-    <t>0.759+/-0.002</t>
-  </si>
-  <si>
-    <t>0.758+/-0.014</t>
-  </si>
-  <si>
-    <t>0.347</t>
-  </si>
-  <si>
-    <t>0.771+/-0.002</t>
-  </si>
-  <si>
-    <t>0.768+/-0.011</t>
-  </si>
-  <si>
-    <t>0.763</t>
-  </si>
-  <si>
-    <t>0.271+/-0.015</t>
-  </si>
-  <si>
-    <t>0.71+/-0.002</t>
-  </si>
-  <si>
-    <t>0.71+/-0.0</t>
-  </si>
-  <si>
-    <t>0.698+/-0.003</t>
-  </si>
-  <si>
-    <t>0.697+/-0.015</t>
-  </si>
-  <si>
-    <t>0.275</t>
-  </si>
-  <si>
-    <t>0.741+/-0.01</t>
-  </si>
-  <si>
-    <t>0.74+/-0.024</t>
-  </si>
-  <si>
-    <t>0.713</t>
-  </si>
-  <si>
-    <t>0.007+/-0.002</t>
-  </si>
-  <si>
-    <t>0.746+/-0.001</t>
-  </si>
-  <si>
-    <t>0.745+/-0.0</t>
-  </si>
-  <si>
-    <t>0.715</t>
-  </si>
-  <si>
-    <t>0.743+/-0.001</t>
-  </si>
-  <si>
-    <t>0.743+/-0.017</t>
-  </si>
-  <si>
-    <t>0.299</t>
-  </si>
-  <si>
-    <t>0.751+/-0.002</t>
-  </si>
-  <si>
-    <t>0.751+/-0.019</t>
-  </si>
-  <si>
-    <t>0.67</t>
-  </si>
-  <si>
-    <t>0.928+/-0.003</t>
-  </si>
-  <si>
-    <t>0.901+/-0.0</t>
-  </si>
-  <si>
-    <t>0.863</t>
-  </si>
-  <si>
-    <t>0.904+/-0.009</t>
-  </si>
-  <si>
-    <t>0.873+/-0.016</t>
-  </si>
-  <si>
-    <t>0.532</t>
-  </si>
-  <si>
-    <t>0.957+/-0.011</t>
-  </si>
-  <si>
-    <t>0.939+/-0.016</t>
-  </si>
-  <si>
-    <t>0.717</t>
-  </si>
-  <si>
-    <t>6.486+/-1.852</t>
-  </si>
-  <si>
-    <t>0.938+/-0.007</t>
-  </si>
-  <si>
-    <t>0.893+/-0.0</t>
-  </si>
-  <si>
-    <t>0.837</t>
-  </si>
-  <si>
-    <t>0.914+/-0.011</t>
-  </si>
-  <si>
-    <t>0.868+/-0.009</t>
-  </si>
-  <si>
-    <t>0.472</t>
-  </si>
-  <si>
-    <t>0.968+/-0.005</t>
-  </si>
-  <si>
-    <t>0.928+/-0.015</t>
-  </si>
-  <si>
-    <t>0.731</t>
-  </si>
-  <si>
-    <t>0.131+/-0.007</t>
-  </si>
-  <si>
-    <t>0.929+/-0.002</t>
-  </si>
-  <si>
-    <t>0.887+/-0.0</t>
-  </si>
-  <si>
-    <t>0.838</t>
-  </si>
-  <si>
-    <t>0.9+/-0.004</t>
-  </si>
-  <si>
-    <t>0.857+/-0.012</t>
-  </si>
-  <si>
-    <t>0.474</t>
-  </si>
-  <si>
-    <t>0.965+/-0.005</t>
-  </si>
-  <si>
-    <t>0.929+/-0.011</t>
-  </si>
-  <si>
-    <t>0.181+/-0.007</t>
-  </si>
-  <si>
-    <t>0.89+/-0.001</t>
-  </si>
-  <si>
-    <t>0.879+/-0.0</t>
-  </si>
-  <si>
-    <t>0.819</t>
-  </si>
-  <si>
-    <t>0.843+/-0.001</t>
-  </si>
-  <si>
-    <t>0.832+/-0.006</t>
-  </si>
-  <si>
-    <t>0.446</t>
-  </si>
-  <si>
-    <t>0.957+/-0.002</t>
-  </si>
-  <si>
-    <t>0.95+/-0.008</t>
-  </si>
-  <si>
-    <t>0.835</t>
-  </si>
-  <si>
-    <t>22.263+/-0.344</t>
-  </si>
-  <si>
-    <t>0.741+/-0.0</t>
-  </si>
-  <si>
-    <t>0.57</t>
-  </si>
-  <si>
-    <t>0.676+/-0.008</t>
-  </si>
-  <si>
-    <t>0.925+/-0.011</t>
-  </si>
-  <si>
-    <t>0.625</t>
-  </si>
-  <si>
-    <t>0.002+/-0.0</t>
-  </si>
-  <si>
-    <t>0.6+/-0.002</t>
-  </si>
-  <si>
-    <t>0.599+/-0.0</t>
-  </si>
-  <si>
-    <t>0.616</t>
-  </si>
-  <si>
-    <t>0.599+/-0.002</t>
-  </si>
-  <si>
-    <t>0.598+/-0.012</t>
-  </si>
-  <si>
-    <t>0.377</t>
-  </si>
-  <si>
-    <t>0.603+/-0.004</t>
-  </si>
-  <si>
-    <t>0.601+/-0.026</t>
-  </si>
-  <si>
-    <t>0.598</t>
-  </si>
-  <si>
-    <t>0.125+/-0.013</t>
-  </si>
-  <si>
-    <t>0.57+/-0.003</t>
-  </si>
-  <si>
-    <t>0.569+/-0.0</t>
-  </si>
-  <si>
-    <t>0.584+/-0.002</t>
-  </si>
-  <si>
-    <t>0.584+/-0.014</t>
-  </si>
-  <si>
-    <t>0.367</t>
-  </si>
-  <si>
-    <t>0.484+/-0.02</t>
-  </si>
-  <si>
-    <t>0.485+/-0.017</t>
-  </si>
-  <si>
-    <t>0.487</t>
-  </si>
-  <si>
-    <t>0.005+/-0.001</t>
-  </si>
-  <si>
-    <t>0.566+/-0.001</t>
-  </si>
-  <si>
-    <t>0.566+/-0.0</t>
-  </si>
-  <si>
-    <t>0.589</t>
-  </si>
-  <si>
-    <t>0.569+/-0.001</t>
-  </si>
-  <si>
-    <t>0.569+/-0.009</t>
-  </si>
-  <si>
-    <t>0.348</t>
-  </si>
-  <si>
-    <t>0.542+/-0.002</t>
-  </si>
-  <si>
-    <t>0.542+/-0.012</t>
-  </si>
-  <si>
-    <t>0.555</t>
-  </si>
-  <si>
-    <t>0.007+/-0.001</t>
-  </si>
-  <si>
-    <t>0.772+/-0.012</t>
-  </si>
-  <si>
-    <t>0.711+/-0.0</t>
-  </si>
-  <si>
-    <t>0.641</t>
-  </si>
-  <si>
-    <t>0.769+/-0.018</t>
-  </si>
-  <si>
-    <t>0.707+/-0.019</t>
-  </si>
-  <si>
-    <t>0.396</t>
-  </si>
-  <si>
-    <t>0.779+/-0.047</t>
-  </si>
-  <si>
-    <t>0.723+/-0.048</t>
-  </si>
-  <si>
-    <t>0.563</t>
-  </si>
-  <si>
-    <t>3.644+/-0.663</t>
-  </si>
-  <si>
-    <t>0.818+/-0.003</t>
-  </si>
-  <si>
-    <t>0.735+/-0.0</t>
-  </si>
-  <si>
-    <t>0.706</t>
-  </si>
-  <si>
-    <t>0.835+/-0.014</t>
-  </si>
-  <si>
-    <t>0.743+/-0.015</t>
-  </si>
-  <si>
-    <t>0.476</t>
-  </si>
-  <si>
-    <t>0.794+/-0.016</t>
-  </si>
-  <si>
-    <t>0.719+/-0.026</t>
-  </si>
-  <si>
-    <t>0.619</t>
-  </si>
-  <si>
-    <t>0.128+/-0.006</t>
-  </si>
-  <si>
-    <t>0.803+/-0.003</t>
-  </si>
-  <si>
-    <t>0.732+/-0.0</t>
-  </si>
-  <si>
-    <t>0.708</t>
-  </si>
-  <si>
-    <t>0.813+/-0.015</t>
-  </si>
-  <si>
-    <t>0.737+/-0.017</t>
-  </si>
-  <si>
-    <t>0.48</t>
-  </si>
-  <si>
-    <t>0.788+/-0.019</t>
-  </si>
-  <si>
-    <t>0.723+/-0.022</t>
-  </si>
-  <si>
-    <t>0.65</t>
-  </si>
-  <si>
-    <t>0.184+/-0.004</t>
-  </si>
-  <si>
-    <t>0.722+/-0.002</t>
-  </si>
-  <si>
-    <t>0.691+/-0.0</t>
-  </si>
-  <si>
-    <t>0.651</t>
-  </si>
-  <si>
-    <t>0.719+/-0.001</t>
-  </si>
-  <si>
-    <t>0.688+/-0.009</t>
-  </si>
-  <si>
-    <t>0.408</t>
-  </si>
-  <si>
-    <t>0.727+/-0.004</t>
-  </si>
-  <si>
-    <t>0.701+/-0.016</t>
-  </si>
-  <si>
-    <t>0.581</t>
-  </si>
-  <si>
-    <t>29.289+/-0.573</t>
-  </si>
-  <si>
-    <t>0.722+/-0.0</t>
-  </si>
-  <si>
-    <t>0.665+/-0.006</t>
-  </si>
-  <si>
-    <t>0.366</t>
-  </si>
-  <si>
-    <t>0.897+/-0.016</t>
-  </si>
-  <si>
-    <t>0.607</t>
-  </si>
-  <si>
-    <t>0.58+/-0.002</t>
-  </si>
-  <si>
-    <t>0.576+/-0.0</t>
-  </si>
-  <si>
-    <t>0.597</t>
-  </si>
-  <si>
-    <t>0.581+/-0.002</t>
-  </si>
-  <si>
-    <t>0.577+/-0.014</t>
-  </si>
-  <si>
-    <t>0.576+/-0.005</t>
-  </si>
-  <si>
-    <t>0.574+/-0.02</t>
-  </si>
-  <si>
-    <t>0.583</t>
-  </si>
-  <si>
-    <t>0.109+/-0.005</t>
-  </si>
-  <si>
-    <t>0.552+/-0.003</t>
-  </si>
-  <si>
-    <t>0.551+/-0.0</t>
-  </si>
-  <si>
-    <t>0.635</t>
-  </si>
-  <si>
-    <t>0.58+/-0.003</t>
-  </si>
-  <si>
-    <t>0.579+/-0.02</t>
-  </si>
-  <si>
-    <t>0.405</t>
-  </si>
-  <si>
-    <t>0.378+/-0.018</t>
-  </si>
-  <si>
-    <t>0.376+/-0.017</t>
-  </si>
-  <si>
-    <t>0.389</t>
-  </si>
-  <si>
-    <t>0.005+/-0.0</t>
-  </si>
-  <si>
-    <t>0.558+/-0.001</t>
-  </si>
-  <si>
-    <t>0.558+/-0.0</t>
-  </si>
-  <si>
-    <t>0.569</t>
-  </si>
-  <si>
-    <t>0.56+/-0.001</t>
-  </si>
-  <si>
-    <t>0.56+/-0.011</t>
-  </si>
-  <si>
-    <t>0.364</t>
-  </si>
-  <si>
-    <t>0.538+/-0.002</t>
-  </si>
-  <si>
-    <t>0.539+/-0.018</t>
-  </si>
-  <si>
-    <t>0.007+/-0.0</t>
-  </si>
-  <si>
-    <t>0.75+/-0.01</t>
-  </si>
-  <si>
-    <t>0.682+/-0.0</t>
-  </si>
-  <si>
-    <t>0.666</t>
-  </si>
-  <si>
-    <t>0.754+/-0.015</t>
-  </si>
-  <si>
-    <t>0.684+/-0.016</t>
-  </si>
-  <si>
-    <t>0.462</t>
-  </si>
-  <si>
-    <t>0.745+/-0.044</t>
-  </si>
-  <si>
-    <t>0.681+/-0.052</t>
-  </si>
-  <si>
-    <t>0.503</t>
-  </si>
-  <si>
-    <t>3.282+/-0.481</t>
-  </si>
-  <si>
-    <t>0.803+/-0.01</t>
-  </si>
-  <si>
-    <t>0.708+/-0.0</t>
-  </si>
-  <si>
-    <t>0.682</t>
-  </si>
-  <si>
-    <t>0.813+/-0.017</t>
-  </si>
-  <si>
-    <t>0.715+/-0.016</t>
-  </si>
-  <si>
-    <t>0.486</t>
-  </si>
-  <si>
-    <t>0.788+/-0.02</t>
-  </si>
-  <si>
-    <t>0.694+/-0.03</t>
-  </si>
-  <si>
-    <t>0.11+/-0.006</t>
-  </si>
-  <si>
-    <t>0.782+/-0.006</t>
-  </si>
-  <si>
-    <t>0.712+/-0.0</t>
-  </si>
-  <si>
-    <t>0.697</t>
-  </si>
-  <si>
-    <t>0.79+/-0.013</t>
-  </si>
-  <si>
-    <t>0.72+/-0.012</t>
-  </si>
-  <si>
-    <t>0.507</t>
-  </si>
-  <si>
-    <t>0.769+/-0.026</t>
-  </si>
-  <si>
-    <t>0.695+/-0.04</t>
-  </si>
-  <si>
-    <t>0.593</t>
-  </si>
-  <si>
-    <t>0.154+/-0.004</t>
-  </si>
-  <si>
-    <t>0.667+/-0.0</t>
-  </si>
-  <si>
-    <t>0.631</t>
-  </si>
-  <si>
-    <t>0.666+/-0.009</t>
-  </si>
-  <si>
-    <t>0.425</t>
-  </si>
-  <si>
-    <t>0.696+/-0.006</t>
-  </si>
-  <si>
-    <t>0.671+/-0.019</t>
-  </si>
-  <si>
-    <t>0.567</t>
-  </si>
-  <si>
-    <t>27.243+/-0.104</t>
+    <t>0.667+/-0.009</t>
+  </si>
+  <si>
+    <t>0.432</t>
+  </si>
+  <si>
+    <t>0.706+/-0.008</t>
+  </si>
+  <si>
+    <t>0.67+/-0.021</t>
+  </si>
+  <si>
+    <t>0.574</t>
+  </si>
+  <si>
+    <t>28.082+/-1.281</t>
   </si>
 </sst>
 </file>
@@ -1356,28 +1383,28 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I2" t="s">
-        <v>86</v>
-      </c>
-      <c r="J2">
-        <v>0.5</v>
+        <v>83</v>
+      </c>
+      <c r="J2" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1385,31 +1412,31 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I3" t="s">
-        <v>87</v>
-      </c>
-      <c r="J3">
-        <v>0.5</v>
+        <v>84</v>
+      </c>
+      <c r="J3" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1417,31 +1444,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I4" t="s">
-        <v>68</v>
-      </c>
-      <c r="J4">
-        <v>0.7983870967741935</v>
+        <v>85</v>
+      </c>
+      <c r="J4" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1449,31 +1476,31 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I5" t="s">
-        <v>88</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
+        <v>86</v>
+      </c>
+      <c r="J5" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1481,31 +1508,31 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I6" t="s">
-        <v>89</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
+        <v>87</v>
+      </c>
+      <c r="J6" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1513,31 +1540,31 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I7" t="s">
-        <v>90</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
+        <v>88</v>
+      </c>
+      <c r="J7" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1545,31 +1572,31 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F8" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I8" t="s">
-        <v>91</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
+        <v>89</v>
+      </c>
+      <c r="J8" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1577,31 +1604,31 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F9" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G9" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I9" t="s">
-        <v>92</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
+        <v>90</v>
+      </c>
+      <c r="J9" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1609,31 +1636,31 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E10" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F10" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="G10" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H10" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I10" t="s">
-        <v>93</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
+        <v>91</v>
+      </c>
+      <c r="J10" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1641,31 +1668,31 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E11" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I11" t="s">
-        <v>94</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
+        <v>92</v>
+      </c>
+      <c r="J11" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1718,28 +1745,28 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>101</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>111</v>
       </c>
       <c r="E2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G2" t="s">
         <v>139</v>
       </c>
       <c r="H2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I2" t="s">
-        <v>158</v>
-      </c>
-      <c r="J2">
-        <v>0.5</v>
+        <v>157</v>
+      </c>
+      <c r="J2" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1747,31 +1774,31 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D3" t="s">
         <v>112</v>
       </c>
       <c r="E3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G3" t="s">
         <v>140</v>
       </c>
       <c r="H3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I3" t="s">
-        <v>159</v>
-      </c>
-      <c r="J3">
-        <v>0.5</v>
+        <v>158</v>
+      </c>
+      <c r="J3" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1779,31 +1806,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="C4" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>113</v>
       </c>
       <c r="E4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G4" t="s">
-        <v>141</v>
+        <v>75</v>
       </c>
       <c r="H4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I4" t="s">
-        <v>160</v>
-      </c>
-      <c r="J4">
-        <v>0.85</v>
+        <v>159</v>
+      </c>
+      <c r="J4" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1811,31 +1838,31 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>104</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I5" t="s">
-        <v>161</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
+        <v>160</v>
+      </c>
+      <c r="J5" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1843,31 +1870,31 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>97</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I6" t="s">
-        <v>162</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
+        <v>161</v>
+      </c>
+      <c r="J6" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1875,31 +1902,31 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I7" t="s">
-        <v>163</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
+        <v>162</v>
+      </c>
+      <c r="J7" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1907,31 +1934,31 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>107</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H8" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I8" t="s">
-        <v>164</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
+        <v>163</v>
+      </c>
+      <c r="J8" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1939,31 +1966,31 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I9" t="s">
-        <v>165</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
+        <v>164</v>
+      </c>
+      <c r="J9" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1971,31 +1998,31 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E10" t="s">
-        <v>128</v>
+        <v>91</v>
       </c>
       <c r="F10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G10" t="s">
-        <v>147</v>
+        <v>41</v>
       </c>
       <c r="H10" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="I10" t="s">
-        <v>166</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
+        <v>165</v>
+      </c>
+      <c r="J10" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2003,31 +2030,31 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C11" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E11" t="s">
-        <v>56</v>
+        <v>129</v>
       </c>
       <c r="F11" t="s">
-        <v>138</v>
+        <v>52</v>
       </c>
       <c r="G11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I11" t="s">
-        <v>167</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
+        <v>166</v>
+      </c>
+      <c r="J11" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -2080,28 +2107,28 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>174</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G2" t="s">
         <v>213</v>
       </c>
       <c r="H2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I2" t="s">
-        <v>233</v>
-      </c>
-      <c r="J2">
-        <v>0.5</v>
+        <v>232</v>
+      </c>
+      <c r="J2" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2109,31 +2136,31 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>168</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E3" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G3" t="s">
         <v>214</v>
       </c>
       <c r="H3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I3" t="s">
-        <v>234</v>
-      </c>
-      <c r="J3">
-        <v>0.5</v>
+        <v>233</v>
+      </c>
+      <c r="J3" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2141,31 +2168,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="C4" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D4" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="E4" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G4" t="s">
-        <v>215</v>
+        <v>55</v>
       </c>
       <c r="H4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I4" t="s">
-        <v>235</v>
-      </c>
-      <c r="J4">
-        <v>0.7231182795698925</v>
+        <v>234</v>
+      </c>
+      <c r="J4" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2173,31 +2200,31 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>177</v>
       </c>
       <c r="C5" t="s">
-        <v>177</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E5" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F5" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I5" t="s">
-        <v>236</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
+        <v>235</v>
+      </c>
+      <c r="J5" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2205,31 +2232,31 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="C6" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D6" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E6" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F6" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I6" t="s">
-        <v>237</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
+        <v>236</v>
+      </c>
+      <c r="J6" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2237,31 +2264,31 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>106</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I7" t="s">
-        <v>238</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
+        <v>152</v>
+      </c>
+      <c r="J7" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2269,31 +2296,31 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>178</v>
       </c>
       <c r="C8" t="s">
-        <v>180</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E8" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F8" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I8" t="s">
-        <v>239</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
+        <v>237</v>
+      </c>
+      <c r="J8" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2301,31 +2328,31 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="C9" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D9" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E9" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F9" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I9" t="s">
-        <v>240</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
+        <v>238</v>
+      </c>
+      <c r="J9" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2333,31 +2360,31 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>172</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D10" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E10" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F10" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I10" t="s">
-        <v>241</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
+        <v>239</v>
+      </c>
+      <c r="J10" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2365,31 +2392,31 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>173</v>
+        <v>104</v>
       </c>
       <c r="C11" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E11" t="s">
-        <v>202</v>
+        <v>129</v>
       </c>
       <c r="F11" t="s">
-        <v>212</v>
+        <v>52</v>
       </c>
       <c r="G11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I11" t="s">
-        <v>242</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
+        <v>240</v>
+      </c>
+      <c r="J11" t="s">
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -2442,28 +2469,28 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>248</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H2" t="s">
         <v>295</v>
       </c>
       <c r="I2" t="s">
-        <v>113</v>
-      </c>
-      <c r="J2">
-        <v>0.5</v>
+        <v>304</v>
+      </c>
+      <c r="J2" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2471,22 +2498,22 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>243</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="D3" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H3" t="s">
         <v>296</v>
@@ -2494,8 +2521,8 @@
       <c r="I3" t="s">
         <v>305</v>
       </c>
-      <c r="J3">
-        <v>0.5</v>
+      <c r="J3" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2503,31 +2530,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>201</v>
+        <v>250</v>
       </c>
       <c r="C4" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="D4" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E4" t="s">
-        <v>269</v>
+        <v>78</v>
       </c>
       <c r="F4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H4" t="s">
-        <v>297</v>
+        <v>61</v>
       </c>
       <c r="I4" t="s">
-        <v>306</v>
-      </c>
-      <c r="J4">
-        <v>0.6919354838709677</v>
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2535,31 +2562,31 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>251</v>
       </c>
       <c r="C5" t="s">
-        <v>251</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E5" t="s">
         <v>270</v>
       </c>
       <c r="F5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I5" t="s">
-        <v>113</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
+        <v>306</v>
+      </c>
+      <c r="J5" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2567,31 +2594,31 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C6" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D6" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E6" t="s">
         <v>271</v>
       </c>
       <c r="F6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I6" t="s">
         <v>307</v>
       </c>
-      <c r="J6">
-        <v>0</v>
+      <c r="J6" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2599,31 +2626,31 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>245</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>208</v>
+        <v>256</v>
       </c>
       <c r="D7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E7" t="s">
         <v>272</v>
       </c>
       <c r="F7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I7" t="s">
-        <v>308</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
+        <v>299</v>
+      </c>
+      <c r="J7" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2631,31 +2658,31 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>252</v>
       </c>
       <c r="C8" t="s">
-        <v>253</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E8" t="s">
         <v>273</v>
       </c>
       <c r="F8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I8" t="s">
-        <v>309</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
+        <v>308</v>
+      </c>
+      <c r="J8" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2663,31 +2690,31 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="C9" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D9" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E9" t="s">
         <v>274</v>
       </c>
       <c r="F9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I9" t="s">
-        <v>310</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
+        <v>309</v>
+      </c>
+      <c r="J9" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2695,31 +2722,31 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>247</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="D10" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E10" t="s">
-        <v>134</v>
+        <v>29</v>
       </c>
       <c r="F10" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G10" t="s">
-        <v>250</v>
+        <v>293</v>
       </c>
       <c r="H10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I10" t="s">
-        <v>311</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
+        <v>310</v>
+      </c>
+      <c r="J10" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2727,31 +2754,31 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>173</v>
+        <v>104</v>
       </c>
       <c r="C11" t="s">
-        <v>256</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E11" t="s">
-        <v>275</v>
+        <v>129</v>
       </c>
       <c r="F11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G11" t="s">
         <v>294</v>
       </c>
       <c r="H11" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I11" t="s">
-        <v>312</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
+        <v>311</v>
+      </c>
+      <c r="J11" t="s">
+        <v>321</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Modeling Stage/Results/IMS/Non temporal models/simple_models_results_Date_threshold_100_1_replicas_SMOTE.xlsx
+++ b/Data/Modeling Stage/Results/IMS/Non temporal models/simple_models_results_Date_threshold_100_1_replicas_SMOTE.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="325">
   <si>
     <t>Baseline - Majority Class</t>
   </si>
@@ -91,898 +91,907 @@
     <t>0.1+/-0.3</t>
   </si>
   <si>
-    <t>0.001+/-0.0</t>
+    <t>0.0+/-0.0</t>
   </si>
   <si>
     <t>1.0+/-0.0</t>
   </si>
   <si>
-    <t>0.883+/-0.0</t>
-  </si>
-  <si>
-    <t>0.775</t>
-  </si>
-  <si>
-    <t>0.82+/-0.012</t>
-  </si>
-  <si>
-    <t>0.464</t>
-  </si>
-  <si>
-    <t>0.981+/-0.006</t>
+    <t>0.877+/-0.0</t>
+  </si>
+  <si>
+    <t>0.758</t>
+  </si>
+  <si>
+    <t>0.814+/-0.011</t>
+  </si>
+  <si>
+    <t>0.44</t>
+  </si>
+  <si>
+    <t>0.977+/-0.007</t>
+  </si>
+  <si>
+    <t>0.747</t>
+  </si>
+  <si>
+    <t>0.002+/-0.0</t>
+  </si>
+  <si>
+    <t>0.746+/-0.001</t>
+  </si>
+  <si>
+    <t>0.744+/-0.0</t>
+  </si>
+  <si>
+    <t>0.725</t>
+  </si>
+  <si>
+    <t>0.744+/-0.002</t>
+  </si>
+  <si>
+    <t>0.742+/-0.014</t>
+  </si>
+  <si>
+    <t>0.399</t>
+  </si>
+  <si>
+    <t>0.752+/-0.002</t>
+  </si>
+  <si>
+    <t>0.749+/-0.023</t>
+  </si>
+  <si>
+    <t>0.72</t>
+  </si>
+  <si>
+    <t>0.182+/-0.007</t>
+  </si>
+  <si>
+    <t>0.657+/-0.002</t>
+  </si>
+  <si>
+    <t>0.656+/-0.0</t>
+  </si>
+  <si>
+    <t>0.553</t>
+  </si>
+  <si>
+    <t>0.626+/-0.002</t>
+  </si>
+  <si>
+    <t>0.625+/-0.009</t>
+  </si>
+  <si>
+    <t>0.272</t>
+  </si>
+  <si>
+    <t>0.782+/-0.007</t>
+  </si>
+  <si>
+    <t>0.781+/-0.023</t>
+  </si>
+  <si>
+    <t>0.005+/-0.001</t>
+  </si>
+  <si>
+    <t>0.699+/-0.002</t>
+  </si>
+  <si>
+    <t>0.699+/-0.0</t>
+  </si>
+  <si>
+    <t>0.662</t>
+  </si>
+  <si>
+    <t>0.693+/-0.002</t>
+  </si>
+  <si>
+    <t>0.693+/-0.011</t>
+  </si>
+  <si>
+    <t>0.334</t>
+  </si>
+  <si>
+    <t>0.714+/-0.002</t>
+  </si>
+  <si>
+    <t>0.713+/-0.023</t>
+  </si>
+  <si>
+    <t>0.683</t>
+  </si>
+  <si>
+    <t>0.007+/-0.001</t>
+  </si>
+  <si>
+    <t>0.921+/-0.004</t>
+  </si>
+  <si>
+    <t>0.893+/-0.0</t>
+  </si>
+  <si>
+    <t>0.832</t>
+  </si>
+  <si>
+    <t>0.904+/-0.012</t>
+  </si>
+  <si>
+    <t>0.877+/-0.012</t>
+  </si>
+  <si>
+    <t>0.56</t>
+  </si>
+  <si>
+    <t>0.942+/-0.015</t>
+  </si>
+  <si>
+    <t>0.914+/-0.02</t>
+  </si>
+  <si>
+    <t>0.776</t>
+  </si>
+  <si>
+    <t>3.304+/-0.754</t>
+  </si>
+  <si>
+    <t>0.939+/-0.002</t>
+  </si>
+  <si>
+    <t>0.881+/-0.0</t>
+  </si>
+  <si>
+    <t>0.848</t>
+  </si>
+  <si>
+    <t>0.922+/-0.004</t>
+  </si>
+  <si>
+    <t>0.862+/-0.011</t>
+  </si>
+  <si>
+    <t>0.597</t>
+  </si>
+  <si>
+    <t>0.961+/-0.008</t>
+  </si>
+  <si>
+    <t>0.908+/-0.015</t>
+  </si>
+  <si>
+    <t>0.752</t>
+  </si>
+  <si>
+    <t>0.132+/-0.006</t>
+  </si>
+  <si>
+    <t>0.93+/-0.002</t>
+  </si>
+  <si>
+    <t>0.878+/-0.0</t>
+  </si>
+  <si>
+    <t>0.837</t>
+  </si>
+  <si>
+    <t>0.909+/-0.004</t>
+  </si>
+  <si>
+    <t>0.856+/-0.012</t>
+  </si>
+  <si>
+    <t>0.569</t>
+  </si>
+  <si>
+    <t>0.955+/-0.008</t>
+  </si>
+  <si>
+    <t>0.911+/-0.016</t>
+  </si>
+  <si>
+    <t>0.795</t>
+  </si>
+  <si>
+    <t>0.171+/-0.003</t>
+  </si>
+  <si>
+    <t>0.885+/-0.001</t>
+  </si>
+  <si>
+    <t>0.874+/-0.0</t>
+  </si>
+  <si>
+    <t>0.821</t>
+  </si>
+  <si>
+    <t>0.843+/-0.001</t>
+  </si>
+  <si>
+    <t>0.832+/-0.012</t>
+  </si>
+  <si>
+    <t>0.537</t>
+  </si>
+  <si>
+    <t>0.946+/-0.002</t>
+  </si>
+  <si>
+    <t>0.937+/-0.008</t>
+  </si>
+  <si>
+    <t>0.811</t>
+  </si>
+  <si>
+    <t>19.077+/-0.229</t>
+  </si>
+  <si>
+    <t>0.85</t>
+  </si>
+  <si>
+    <t>0.892+/-0.0</t>
+  </si>
+  <si>
+    <t>0.789</t>
+  </si>
+  <si>
+    <t>0.827+/-0.013</t>
+  </si>
+  <si>
+    <t>0.394</t>
+  </si>
+  <si>
+    <t>0.991+/-0.003</t>
   </si>
   <si>
     <t>0.749</t>
   </si>
   <si>
-    <t>0.002+/-0.0</t>
-  </si>
-  <si>
-    <t>0.744+/-0.001</t>
-  </si>
-  <si>
-    <t>0.743+/-0.0</t>
-  </si>
-  <si>
-    <t>0.722</t>
-  </si>
-  <si>
-    <t>0.741+/-0.002</t>
-  </si>
-  <si>
-    <t>0.741+/-0.015</t>
-  </si>
-  <si>
-    <t>0.395</t>
-  </si>
-  <si>
-    <t>0.752+/-0.002</t>
-  </si>
-  <si>
-    <t>0.749+/-0.009</t>
-  </si>
-  <si>
-    <t>0.72</t>
-  </si>
-  <si>
-    <t>0.104+/-0.004</t>
-  </si>
-  <si>
-    <t>0.66+/-0.001</t>
+    <t>0.765+/-0.001</t>
+  </si>
+  <si>
+    <t>0.764+/-0.0</t>
+  </si>
+  <si>
+    <t>0.754</t>
+  </si>
+  <si>
+    <t>0.761+/-0.001</t>
+  </si>
+  <si>
+    <t>0.761+/-0.012</t>
+  </si>
+  <si>
+    <t>0.353</t>
+  </si>
+  <si>
+    <t>0.772+/-0.002</t>
+  </si>
+  <si>
+    <t>0.77+/-0.024</t>
+  </si>
+  <si>
+    <t>0.771</t>
+  </si>
+  <si>
+    <t>0.178+/-0.009</t>
+  </si>
+  <si>
+    <t>0.709+/-0.001</t>
+  </si>
+  <si>
+    <t>0.709+/-0.0</t>
+  </si>
+  <si>
+    <t>0.655</t>
+  </si>
+  <si>
+    <t>0.69+/-0.004</t>
+  </si>
+  <si>
+    <t>0.691+/-0.01</t>
+  </si>
+  <si>
+    <t>0.264</t>
+  </si>
+  <si>
+    <t>0.76+/-0.008</t>
+  </si>
+  <si>
+    <t>0.758+/-0.02</t>
+  </si>
+  <si>
+    <t>0.728</t>
+  </si>
+  <si>
+    <t>0.748+/-0.002</t>
+  </si>
+  <si>
+    <t>0.747+/-0.0</t>
+  </si>
+  <si>
+    <t>0.712</t>
+  </si>
+  <si>
+    <t>0.743+/-0.002</t>
+  </si>
+  <si>
+    <t>0.743+/-0.014</t>
+  </si>
+  <si>
+    <t>0.296</t>
+  </si>
+  <si>
+    <t>0.757+/-0.002</t>
+  </si>
+  <si>
+    <t>0.756+/-0.015</t>
+  </si>
+  <si>
+    <t>0.667</t>
+  </si>
+  <si>
+    <t>0.006+/-0.001</t>
+  </si>
+  <si>
+    <t>0.923+/-0.004</t>
+  </si>
+  <si>
+    <t>0.894+/-0.0</t>
+  </si>
+  <si>
+    <t>0.864</t>
+  </si>
+  <si>
+    <t>0.903+/-0.019</t>
+  </si>
+  <si>
+    <t>0.869+/-0.018</t>
+  </si>
+  <si>
+    <t>0.534</t>
+  </si>
+  <si>
+    <t>0.95+/-0.027</t>
+  </si>
+  <si>
+    <t>0.931+/-0.026</t>
+  </si>
+  <si>
+    <t>0.724</t>
+  </si>
+  <si>
+    <t>3.853+/-0.897</t>
+  </si>
+  <si>
+    <t>0.938+/-0.003</t>
+  </si>
+  <si>
+    <t>0.888+/-0.0</t>
+  </si>
+  <si>
+    <t>0.838</t>
+  </si>
+  <si>
+    <t>0.914+/-0.005</t>
+  </si>
+  <si>
+    <t>0.863+/-0.007</t>
+  </si>
+  <si>
+    <t>0.475</t>
+  </si>
+  <si>
+    <t>0.968+/-0.003</t>
+  </si>
+  <si>
+    <t>0.923+/-0.011</t>
+  </si>
+  <si>
+    <t>0.735</t>
+  </si>
+  <si>
+    <t>0.122+/-0.007</t>
+  </si>
+  <si>
+    <t>0.927+/-0.003</t>
+  </si>
+  <si>
+    <t>0.886+/-0.0</t>
+  </si>
+  <si>
+    <t>0.846</t>
+  </si>
+  <si>
+    <t>0.898+/-0.006</t>
+  </si>
+  <si>
+    <t>0.857+/-0.011</t>
+  </si>
+  <si>
+    <t>0.491</t>
+  </si>
+  <si>
+    <t>0.964+/-0.006</t>
+  </si>
+  <si>
+    <t>0.927+/-0.013</t>
+  </si>
+  <si>
+    <t>0.753</t>
+  </si>
+  <si>
+    <t>0.164+/-0.003</t>
+  </si>
+  <si>
+    <t>0.887+/-0.001</t>
+  </si>
+  <si>
+    <t>0.823</t>
+  </si>
+  <si>
+    <t>0.841+/-0.001</t>
+  </si>
+  <si>
+    <t>0.832+/-0.007</t>
+  </si>
+  <si>
+    <t>0.452</t>
+  </si>
+  <si>
+    <t>0.955+/-0.001</t>
+  </si>
+  <si>
+    <t>0.946+/-0.008</t>
+  </si>
+  <si>
+    <t>0.839</t>
+  </si>
+  <si>
+    <t>19.864+/-0.323</t>
+  </si>
+  <si>
+    <t>0.723</t>
+  </si>
+  <si>
+    <t>0.15+/-0.229</t>
+  </si>
+  <si>
+    <t>0.3+/-0.458</t>
+  </si>
+  <si>
+    <t>0.742+/-0.0</t>
+  </si>
+  <si>
+    <t>0.584</t>
+  </si>
+  <si>
+    <t>0.676+/-0.009</t>
+  </si>
+  <si>
+    <t>0.359</t>
+  </si>
+  <si>
+    <t>0.93+/-0.01</t>
+  </si>
+  <si>
+    <t>0.643</t>
+  </si>
+  <si>
+    <t>0.002+/-0.001</t>
+  </si>
+  <si>
+    <t>0.6+/-0.001</t>
+  </si>
+  <si>
+    <t>0.598+/-0.0</t>
+  </si>
+  <si>
+    <t>0.612</t>
+  </si>
+  <si>
+    <t>0.598+/-0.001</t>
+  </si>
+  <si>
+    <t>0.597+/-0.007</t>
+  </si>
+  <si>
+    <t>0.377</t>
+  </si>
+  <si>
+    <t>0.609+/-0.004</t>
+  </si>
+  <si>
+    <t>0.606+/-0.02</t>
+  </si>
+  <si>
+    <t>0.111+/-0.006</t>
+  </si>
+  <si>
+    <t>0.568+/-0.002</t>
+  </si>
+  <si>
+    <t>0.568+/-0.0</t>
+  </si>
+  <si>
+    <t>0.628</t>
+  </si>
+  <si>
+    <t>0.588+/-0.003</t>
+  </si>
+  <si>
+    <t>0.587+/-0.013</t>
+  </si>
+  <si>
+    <t>0.363</t>
+  </si>
+  <si>
+    <t>0.456+/-0.021</t>
+  </si>
+  <si>
+    <t>0.455+/-0.027</t>
+  </si>
+  <si>
+    <t>0.456</t>
+  </si>
+  <si>
+    <t>0.567+/-0.0</t>
+  </si>
+  <si>
+    <t>0.582</t>
+  </si>
+  <si>
+    <t>0.571+/-0.002</t>
+  </si>
+  <si>
+    <t>0.57+/-0.011</t>
+  </si>
+  <si>
+    <t>0.343</t>
+  </si>
+  <si>
+    <t>0.548+/-0.002</t>
+  </si>
+  <si>
+    <t>0.546+/-0.017</t>
+  </si>
+  <si>
+    <t>0.555</t>
+  </si>
+  <si>
+    <t>0.007+/-0.002</t>
+  </si>
+  <si>
+    <t>0.768+/-0.008</t>
+  </si>
+  <si>
+    <t>0.71+/-0.0</t>
+  </si>
+  <si>
+    <t>0.755+/-0.016</t>
+  </si>
+  <si>
+    <t>0.7+/-0.022</t>
+  </si>
+  <si>
+    <t>0.415</t>
+  </si>
+  <si>
+    <t>0.797+/-0.04</t>
+  </si>
+  <si>
+    <t>0.738+/-0.048</t>
+  </si>
+  <si>
+    <t>0.596</t>
+  </si>
+  <si>
+    <t>3.726+/-0.538</t>
+  </si>
+  <si>
+    <t>0.823+/-0.009</t>
+  </si>
+  <si>
+    <t>0.736+/-0.0</t>
+  </si>
+  <si>
+    <t>0.706</t>
+  </si>
+  <si>
+    <t>0.83+/-0.011</t>
+  </si>
+  <si>
+    <t>0.739+/-0.015</t>
+  </si>
+  <si>
+    <t>0.478</t>
+  </si>
+  <si>
+    <t>0.813+/-0.02</t>
+  </si>
+  <si>
+    <t>0.728+/-0.027</t>
+  </si>
+  <si>
+    <t>0.658</t>
+  </si>
+  <si>
+    <t>0.118+/-0.014</t>
+  </si>
+  <si>
+    <t>0.796+/-0.007</t>
+  </si>
+  <si>
+    <t>0.735+/-0.0</t>
+  </si>
+  <si>
+    <t>0.805+/-0.01</t>
+  </si>
+  <si>
+    <t>0.743+/-0.018</t>
+  </si>
+  <si>
+    <t>0.496</t>
+  </si>
+  <si>
+    <t>0.781+/-0.022</t>
+  </si>
+  <si>
+    <t>0.72+/-0.031</t>
+  </si>
+  <si>
+    <t>0.65</t>
+  </si>
+  <si>
+    <t>0.156+/-0.003</t>
+  </si>
+  <si>
+    <t>0.723+/-0.002</t>
+  </si>
+  <si>
+    <t>0.692+/-0.0</t>
+  </si>
+  <si>
+    <t>0.718+/-0.002</t>
+  </si>
+  <si>
+    <t>0.687+/-0.011</t>
+  </si>
+  <si>
+    <t>0.418</t>
+  </si>
+  <si>
+    <t>0.733+/-0.004</t>
+  </si>
+  <si>
+    <t>0.706+/-0.013</t>
+  </si>
+  <si>
+    <t>0.604</t>
+  </si>
+  <si>
+    <t>26.906+/-0.259</t>
+  </si>
+  <si>
+    <t>0.692</t>
+  </si>
+  <si>
+    <t>0.25+/-0.25</t>
+  </si>
+  <si>
+    <t>0.5+/-0.5</t>
+  </si>
+  <si>
+    <t>0.722+/-0.0</t>
+  </si>
+  <si>
+    <t>0.562</t>
+  </si>
+  <si>
+    <t>0.664+/-0.011</t>
+  </si>
+  <si>
+    <t>0.37</t>
+  </si>
+  <si>
+    <t>0.9+/-0.012</t>
+  </si>
+  <si>
+    <t>0.584+/-0.003</t>
+  </si>
+  <si>
+    <t>0.582+/-0.0</t>
+  </si>
+  <si>
+    <t>0.594</t>
+  </si>
+  <si>
+    <t>0.582+/-0.003</t>
+  </si>
+  <si>
+    <t>0.58+/-0.014</t>
+  </si>
+  <si>
+    <t>0.595+/-0.005</t>
+  </si>
+  <si>
+    <t>0.593+/-0.017</t>
+  </si>
+  <si>
+    <t>0.593</t>
+  </si>
+  <si>
+    <t>0.121+/-0.004</t>
+  </si>
+  <si>
+    <t>0.564+/-0.002</t>
+  </si>
+  <si>
+    <t>0.562+/-0.0</t>
+  </si>
+  <si>
+    <t>0.57</t>
+  </si>
+  <si>
+    <t>0.561+/-0.005</t>
+  </si>
+  <si>
+    <t>0.559+/-0.01</t>
+  </si>
+  <si>
+    <t>0.374</t>
+  </si>
+  <si>
+    <t>0.591+/-0.026</t>
+  </si>
+  <si>
+    <t>0.588+/-0.034</t>
+  </si>
+  <si>
+    <t>0.583</t>
+  </si>
+  <si>
+    <t>0.564+/-0.001</t>
+  </si>
+  <si>
+    <t>0.579</t>
+  </si>
+  <si>
+    <t>0.566+/-0.001</t>
+  </si>
+  <si>
+    <t>0.563+/-0.018</t>
+  </si>
+  <si>
+    <t>0.376</t>
+  </si>
+  <si>
+    <t>0.553+/-0.002</t>
+  </si>
+  <si>
+    <t>0.551+/-0.032</t>
+  </si>
+  <si>
+    <t>0.557</t>
+  </si>
+  <si>
+    <t>0.006+/-0.0</t>
+  </si>
+  <si>
+    <t>0.75+/-0.007</t>
+  </si>
+  <si>
+    <t>0.676+/-0.0</t>
+  </si>
+  <si>
+    <t>0.639</t>
+  </si>
+  <si>
+    <t>0.75+/-0.027</t>
+  </si>
+  <si>
+    <t>0.676+/-0.025</t>
+  </si>
+  <si>
+    <t>0.439</t>
+  </si>
+  <si>
+    <t>0.755+/-0.056</t>
+  </si>
+  <si>
+    <t>0.685+/-0.065</t>
+  </si>
+  <si>
+    <t>0.616</t>
+  </si>
+  <si>
+    <t>3.619+/-0.419</t>
+  </si>
+  <si>
+    <t>0.801+/-0.006</t>
+  </si>
+  <si>
+    <t>0.717+/-0.0</t>
+  </si>
+  <si>
+    <t>0.702</t>
+  </si>
+  <si>
+    <t>0.828+/-0.019</t>
+  </si>
+  <si>
+    <t>0.736+/-0.023</t>
+  </si>
+  <si>
+    <t>0.513</t>
+  </si>
+  <si>
+    <t>0.76+/-0.026</t>
+  </si>
+  <si>
+    <t>0.679+/-0.038</t>
+  </si>
+  <si>
+    <t>0.64</t>
+  </si>
+  <si>
+    <t>0.117+/-0.01</t>
+  </si>
+  <si>
+    <t>0.785+/-0.005</t>
+  </si>
+  <si>
+    <t>0.714+/-0.0</t>
+  </si>
+  <si>
+    <t>0.696</t>
+  </si>
+  <si>
+    <t>0.814+/-0.016</t>
+  </si>
+  <si>
+    <t>0.737+/-0.014</t>
+  </si>
+  <si>
+    <t>0.505</t>
+  </si>
+  <si>
+    <t>0.74+/-0.021</t>
+  </si>
+  <si>
+    <t>0.668+/-0.044</t>
+  </si>
+  <si>
+    <t>0.637</t>
+  </si>
+  <si>
+    <t>0.162+/-0.007</t>
+  </si>
+  <si>
+    <t>0.699+/-0.003</t>
   </si>
   <si>
     <t>0.659+/-0.0</t>
   </si>
   <si>
-    <t>0.566</t>
-  </si>
-  <si>
-    <t>0.631+/-0.002</t>
-  </si>
-  <si>
-    <t>0.631+/-0.01</t>
-  </si>
-  <si>
-    <t>0.277</t>
-  </si>
-  <si>
-    <t>0.768+/-0.005</t>
-  </si>
-  <si>
-    <t>0.769+/-0.015</t>
-  </si>
-  <si>
-    <t>0.717</t>
-  </si>
-  <si>
-    <t>0.006+/-0.001</t>
-  </si>
-  <si>
-    <t>0.703+/-0.001</t>
-  </si>
-  <si>
-    <t>0.702+/-0.0</t>
-  </si>
-  <si>
-    <t>0.661</t>
-  </si>
-  <si>
-    <t>0.696+/-0.001</t>
-  </si>
-  <si>
-    <t>0.696+/-0.011</t>
-  </si>
-  <si>
-    <t>0.332</t>
-  </si>
-  <si>
-    <t>0.718+/-0.003</t>
-  </si>
-  <si>
-    <t>0.717+/-0.01</t>
-  </si>
-  <si>
-    <t>0.675</t>
-  </si>
-  <si>
-    <t>0.008+/-0.001</t>
-  </si>
-  <si>
-    <t>0.928+/-0.004</t>
-  </si>
-  <si>
-    <t>0.893+/-0.0</t>
-  </si>
-  <si>
-    <t>0.853</t>
-  </si>
-  <si>
-    <t>0.913+/-0.011</t>
-  </si>
-  <si>
-    <t>0.873+/-0.013</t>
-  </si>
-  <si>
-    <t>0.603</t>
-  </si>
-  <si>
-    <t>0.946+/-0.013</t>
-  </si>
-  <si>
-    <t>0.92+/-0.016</t>
-  </si>
-  <si>
-    <t>0.789</t>
-  </si>
-  <si>
-    <t>3.881+/-0.811</t>
-  </si>
-  <si>
-    <t>0.941+/-0.002</t>
-  </si>
-  <si>
-    <t>0.884+/-0.0</t>
-  </si>
-  <si>
-    <t>0.854</t>
-  </si>
-  <si>
-    <t>0.929+/-0.004</t>
-  </si>
-  <si>
-    <t>0.871+/-0.013</t>
-  </si>
-  <si>
-    <t>0.61</t>
-  </si>
-  <si>
-    <t>0.956+/-0.005</t>
-  </si>
-  <si>
-    <t>0.901+/-0.01</t>
-  </si>
-  <si>
-    <t>0.76</t>
-  </si>
-  <si>
-    <t>0.127+/-0.01</t>
-  </si>
-  <si>
-    <t>0.931+/-0.004</t>
-  </si>
-  <si>
-    <t>0.878+/-0.0</t>
-  </si>
-  <si>
-    <t>0.847</t>
-  </si>
-  <si>
-    <t>0.918+/-0.008</t>
-  </si>
-  <si>
-    <t>0.866+/-0.019</t>
-  </si>
-  <si>
-    <t>0.6</t>
-  </si>
-  <si>
-    <t>0.947+/-0.015</t>
-  </si>
-  <si>
-    <t>0.895+/-0.018</t>
-  </si>
-  <si>
-    <t>0.728</t>
-  </si>
-  <si>
-    <t>0.168+/-0.007</t>
-  </si>
-  <si>
-    <t>0.89+/-0.001</t>
-  </si>
-  <si>
-    <t>0.879+/-0.0</t>
-  </si>
-  <si>
-    <t>0.829</t>
-  </si>
-  <si>
-    <t>0.85+/-0.001</t>
-  </si>
-  <si>
-    <t>0.838+/-0.012</t>
-  </si>
-  <si>
-    <t>0.552</t>
-  </si>
-  <si>
-    <t>0.948+/-0.001</t>
-  </si>
-  <si>
-    <t>0.94+/-0.005</t>
-  </si>
-  <si>
-    <t>0.805</t>
-  </si>
-  <si>
-    <t>20.621+/-0.3</t>
-  </si>
-  <si>
-    <t>0.85</t>
-  </si>
-  <si>
-    <t>0.0+/-0.0</t>
-  </si>
-  <si>
-    <t>0.89+/-0.0</t>
-  </si>
-  <si>
-    <t>0.78</t>
-  </si>
-  <si>
-    <t>0.825+/-0.011</t>
-  </si>
-  <si>
-    <t>0.38</t>
-  </si>
-  <si>
-    <t>0.99+/-0.004</t>
-  </si>
-  <si>
-    <t>0.738</t>
-  </si>
-  <si>
-    <t>0.762+/-0.002</t>
-  </si>
-  <si>
-    <t>0.761+/-0.0</t>
-  </si>
-  <si>
-    <t>0.755</t>
-  </si>
-  <si>
-    <t>0.759+/-0.002</t>
-  </si>
-  <si>
-    <t>0.758+/-0.015</t>
-  </si>
-  <si>
-    <t>0.355</t>
-  </si>
-  <si>
-    <t>0.768+/-0.002</t>
-  </si>
-  <si>
-    <t>0.766+/-0.022</t>
-  </si>
-  <si>
-    <t>0.774</t>
-  </si>
-  <si>
-    <t>0.188+/-0.011</t>
-  </si>
-  <si>
-    <t>0.705+/-0.002</t>
-  </si>
-  <si>
-    <t>0.705+/-0.0</t>
-  </si>
-  <si>
-    <t>0.651</t>
-  </si>
-  <si>
-    <t>0.687+/-0.004</t>
-  </si>
-  <si>
-    <t>0.688+/-0.012</t>
-  </si>
-  <si>
-    <t>0.262</t>
-  </si>
-  <si>
-    <t>0.754+/-0.007</t>
-  </si>
-  <si>
-    <t>0.752+/-0.016</t>
-  </si>
-  <si>
-    <t>0.005+/-0.001</t>
-  </si>
-  <si>
-    <t>0.749+/-0.002</t>
-  </si>
-  <si>
-    <t>0.748+/-0.0</t>
-  </si>
-  <si>
-    <t>0.715</t>
-  </si>
-  <si>
-    <t>0.744+/-0.002</t>
-  </si>
-  <si>
-    <t>0.744+/-0.017</t>
-  </si>
-  <si>
-    <t>0.301</t>
-  </si>
-  <si>
-    <t>0.758+/-0.002</t>
-  </si>
-  <si>
-    <t>0.757+/-0.013</t>
-  </si>
-  <si>
-    <t>0.685</t>
-  </si>
-  <si>
-    <t>0.924+/-0.004</t>
-  </si>
-  <si>
-    <t>0.896+/-0.0</t>
-  </si>
-  <si>
-    <t>0.912+/-0.014</t>
-  </si>
-  <si>
-    <t>0.88+/-0.014</t>
-  </si>
-  <si>
-    <t>0.51</t>
-  </si>
-  <si>
-    <t>0.939+/-0.02</t>
-  </si>
-  <si>
-    <t>0.917+/-0.022</t>
-  </si>
-  <si>
-    <t>3.591+/-0.712</t>
-  </si>
-  <si>
-    <t>0.939+/-0.004</t>
-  </si>
-  <si>
-    <t>0.891+/-0.0</t>
-  </si>
-  <si>
-    <t>0.844</t>
-  </si>
-  <si>
-    <t>0.915+/-0.006</t>
-  </si>
-  <si>
-    <t>0.866+/-0.011</t>
-  </si>
-  <si>
-    <t>0.488</t>
-  </si>
-  <si>
-    <t>0.967+/-0.005</t>
-  </si>
-  <si>
-    <t>0.925+/-0.01</t>
-  </si>
-  <si>
-    <t>0.817</t>
-  </si>
-  <si>
-    <t>0.145+/-0.006</t>
-  </si>
-  <si>
-    <t>0.933+/-0.003</t>
-  </si>
-  <si>
-    <t>0.886+/-0.0</t>
-  </si>
-  <si>
-    <t>0.83</t>
-  </si>
-  <si>
-    <t>0.9+/-0.006</t>
-  </si>
-  <si>
-    <t>0.854+/-0.01</t>
-  </si>
-  <si>
-    <t>0.459</t>
-  </si>
-  <si>
-    <t>0.973+/-0.006</t>
-  </si>
-  <si>
-    <t>0.932+/-0.013</t>
-  </si>
-  <si>
-    <t>0.753</t>
-  </si>
-  <si>
-    <t>0.209+/-0.008</t>
-  </si>
-  <si>
-    <t>0.889+/-0.001</t>
-  </si>
-  <si>
-    <t>0.823</t>
-  </si>
-  <si>
-    <t>0.841+/-0.001</t>
-  </si>
-  <si>
-    <t>0.83+/-0.01</t>
-  </si>
-  <si>
-    <t>0.451</t>
-  </si>
-  <si>
-    <t>0.959+/-0.001</t>
-  </si>
-  <si>
-    <t>0.951+/-0.009</t>
-  </si>
-  <si>
-    <t>0.846</t>
-  </si>
-  <si>
-    <t>22.105+/-1.386</t>
-  </si>
-  <si>
-    <t>0.723</t>
-  </si>
-  <si>
-    <t>0.15+/-0.229</t>
-  </si>
-  <si>
-    <t>0.3+/-0.458</t>
-  </si>
-  <si>
-    <t>0.741+/-0.0</t>
-  </si>
-  <si>
-    <t>0.581</t>
-  </si>
-  <si>
-    <t>0.674+/-0.009</t>
-  </si>
-  <si>
-    <t>0.353</t>
-  </si>
-  <si>
-    <t>0.932+/-0.008</t>
-  </si>
-  <si>
-    <t>0.617</t>
-  </si>
-  <si>
-    <t>0.6+/-0.002</t>
-  </si>
-  <si>
-    <t>0.597+/-0.0</t>
-  </si>
-  <si>
-    <t>0.618</t>
-  </si>
-  <si>
-    <t>0.601+/-0.002</t>
-  </si>
-  <si>
-    <t>0.598+/-0.01</t>
-  </si>
-  <si>
-    <t>0.378</t>
-  </si>
-  <si>
-    <t>0.593+/-0.003</t>
-  </si>
-  <si>
-    <t>0.591+/-0.016</t>
-  </si>
-  <si>
-    <t>0.59</t>
-  </si>
-  <si>
-    <t>0.106+/-0.01</t>
-  </si>
-  <si>
-    <t>0.572+/-0.001</t>
-  </si>
-  <si>
-    <t>0.571+/-0.0</t>
-  </si>
-  <si>
-    <t>0.633</t>
-  </si>
-  <si>
-    <t>0.591+/-0.004</t>
-  </si>
-  <si>
-    <t>0.589+/-0.018</t>
-  </si>
-  <si>
-    <t>0.373</t>
-  </si>
-  <si>
-    <t>0.471+/-0.018</t>
-  </si>
-  <si>
-    <t>0.47+/-0.025</t>
-  </si>
-  <si>
-    <t>0.482</t>
-  </si>
-  <si>
-    <t>0.566+/-0.001</t>
-  </si>
-  <si>
-    <t>0.565+/-0.0</t>
-  </si>
-  <si>
-    <t>0.584</t>
-  </si>
-  <si>
-    <t>0.569+/-0.001</t>
-  </si>
-  <si>
-    <t>0.568+/-0.009</t>
-  </si>
-  <si>
-    <t>0.346</t>
-  </si>
-  <si>
-    <t>0.545+/-0.003</t>
-  </si>
-  <si>
-    <t>0.542+/-0.015</t>
-  </si>
-  <si>
-    <t>0.563</t>
-  </si>
-  <si>
-    <t>0.776+/-0.008</t>
-  </si>
-  <si>
-    <t>0.713+/-0.0</t>
-  </si>
-  <si>
-    <t>0.765+/-0.013</t>
-  </si>
-  <si>
-    <t>0.705+/-0.016</t>
-  </si>
-  <si>
-    <t>0.417</t>
-  </si>
-  <si>
-    <t>0.798+/-0.02</t>
-  </si>
-  <si>
-    <t>0.734+/-0.021</t>
-  </si>
-  <si>
-    <t>0.569</t>
-  </si>
-  <si>
-    <t>3.752+/-0.887</t>
-  </si>
-  <si>
-    <t>0.834+/-0.006</t>
-  </si>
-  <si>
-    <t>0.747+/-0.0</t>
-  </si>
-  <si>
-    <t>0.704</t>
-  </si>
-  <si>
-    <t>0.846+/-0.01</t>
-  </si>
-  <si>
-    <t>0.754+/-0.014</t>
-  </si>
-  <si>
-    <t>0.475</t>
-  </si>
-  <si>
-    <t>0.816+/-0.018</t>
-  </si>
-  <si>
-    <t>0.733+/-0.023</t>
-  </si>
-  <si>
-    <t>0.639</t>
-  </si>
-  <si>
-    <t>0.111+/-0.009</t>
-  </si>
-  <si>
-    <t>0.812+/-0.008</t>
-  </si>
-  <si>
-    <t>0.739+/-0.0</t>
-  </si>
-  <si>
-    <t>0.714</t>
-  </si>
-  <si>
-    <t>0.83+/-0.011</t>
-  </si>
-  <si>
-    <t>0.752+/-0.025</t>
-  </si>
-  <si>
-    <t>0.785+/-0.025</t>
-  </si>
-  <si>
-    <t>0.716+/-0.025</t>
-  </si>
-  <si>
-    <t>0.656</t>
-  </si>
-  <si>
-    <t>0.157+/-0.009</t>
-  </si>
-  <si>
-    <t>0.717+/-0.002</t>
-  </si>
-  <si>
-    <t>0.685+/-0.0</t>
-  </si>
-  <si>
-    <t>0.659</t>
-  </si>
-  <si>
-    <t>0.717+/-0.003</t>
-  </si>
-  <si>
-    <t>0.684+/-0.015</t>
-  </si>
-  <si>
-    <t>0.419</t>
-  </si>
-  <si>
-    <t>0.69+/-0.016</t>
-  </si>
-  <si>
-    <t>0.594</t>
-  </si>
-  <si>
-    <t>29.896+/-1.895</t>
-  </si>
-  <si>
-    <t>0.692</t>
-  </si>
-  <si>
-    <t>0.25+/-0.25</t>
-  </si>
-  <si>
-    <t>0.5+/-0.5</t>
-  </si>
-  <si>
-    <t>0.714+/-0.0</t>
-  </si>
-  <si>
-    <t>0.568</t>
-  </si>
-  <si>
-    <t>0.657+/-0.01</t>
-  </si>
-  <si>
-    <t>0.376</t>
-  </si>
-  <si>
-    <t>0.896+/-0.006</t>
-  </si>
-  <si>
-    <t>0.609</t>
-  </si>
-  <si>
-    <t>0.585+/-0.002</t>
-  </si>
-  <si>
-    <t>0.584+/-0.0</t>
-  </si>
-  <si>
-    <t>0.598</t>
-  </si>
-  <si>
-    <t>0.585+/-0.017</t>
-  </si>
-  <si>
-    <t>0.396</t>
-  </si>
-  <si>
-    <t>0.582+/-0.004</t>
-  </si>
-  <si>
-    <t>0.581+/-0.018</t>
-  </si>
-  <si>
-    <t>0.585</t>
-  </si>
-  <si>
-    <t>0.128+/-0.012</t>
-  </si>
-  <si>
-    <t>0.561+/-0.004</t>
-  </si>
-  <si>
-    <t>0.558+/-0.0</t>
-  </si>
-  <si>
-    <t>0.573+/-0.002</t>
-  </si>
-  <si>
-    <t>0.57+/-0.014</t>
-  </si>
-  <si>
-    <t>0.388</t>
-  </si>
-  <si>
-    <t>0.474+/-0.027</t>
-  </si>
-  <si>
-    <t>0.471+/-0.043</t>
-  </si>
-  <si>
-    <t>0.561+/-0.002</t>
-  </si>
-  <si>
-    <t>0.56+/-0.0</t>
-  </si>
-  <si>
-    <t>0.576</t>
-  </si>
-  <si>
-    <t>0.564+/-0.002</t>
-  </si>
-  <si>
-    <t>0.562+/-0.017</t>
-  </si>
-  <si>
-    <t>0.37</t>
-  </si>
-  <si>
-    <t>0.542+/-0.003</t>
-  </si>
-  <si>
-    <t>0.542+/-0.028</t>
-  </si>
-  <si>
-    <t>0.536</t>
-  </si>
-  <si>
-    <t>0.007+/-0.001</t>
-  </si>
-  <si>
-    <t>0.753+/-0.009</t>
-  </si>
-  <si>
-    <t>0.675+/-0.0</t>
-  </si>
-  <si>
-    <t>0.626</t>
-  </si>
-  <si>
-    <t>0.752+/-0.019</t>
-  </si>
-  <si>
-    <t>0.675+/-0.025</t>
-  </si>
-  <si>
-    <t>0.42</t>
-  </si>
-  <si>
-    <t>0.758+/-0.047</t>
-  </si>
-  <si>
-    <t>0.682+/-0.043</t>
-  </si>
-  <si>
-    <t>0.558</t>
-  </si>
-  <si>
-    <t>3.295+/-0.963</t>
-  </si>
-  <si>
-    <t>0.803+/-0.014</t>
-  </si>
-  <si>
-    <t>0.701+/-0.0</t>
-  </si>
-  <si>
-    <t>0.805+/-0.015</t>
-  </si>
-  <si>
-    <t>0.7+/-0.011</t>
-  </si>
-  <si>
-    <t>0.481</t>
-  </si>
-  <si>
-    <t>0.8+/-0.032</t>
-  </si>
-  <si>
-    <t>0.705+/-0.037</t>
-  </si>
-  <si>
-    <t>0.674</t>
-  </si>
-  <si>
-    <t>0.115+/-0.01</t>
-  </si>
-  <si>
-    <t>0.788+/-0.011</t>
-  </si>
-  <si>
-    <t>0.696+/-0.0</t>
-  </si>
-  <si>
-    <t>0.789+/-0.015</t>
-  </si>
-  <si>
-    <t>0.697+/-0.022</t>
-  </si>
-  <si>
-    <t>0.788+/-0.037</t>
-  </si>
-  <si>
-    <t>0.697+/-0.035</t>
-  </si>
-  <si>
-    <t>0.668</t>
-  </si>
-  <si>
-    <t>0.165+/-0.004</t>
-  </si>
-  <si>
-    <t>0.706+/-0.002</t>
-  </si>
-  <si>
-    <t>0.667+/-0.0</t>
-  </si>
-  <si>
-    <t>0.636</t>
-  </si>
-  <si>
-    <t>0.706+/-0.003</t>
-  </si>
-  <si>
-    <t>0.667+/-0.009</t>
-  </si>
-  <si>
-    <t>0.432</t>
-  </si>
-  <si>
-    <t>0.706+/-0.008</t>
-  </si>
-  <si>
-    <t>0.67+/-0.021</t>
-  </si>
-  <si>
-    <t>0.574</t>
-  </si>
-  <si>
-    <t>28.082+/-1.281</t>
+    <t>0.634</t>
+  </si>
+  <si>
+    <t>0.702+/-0.004</t>
+  </si>
+  <si>
+    <t>0.66+/-0.013</t>
+  </si>
+  <si>
+    <t>0.429</t>
+  </si>
+  <si>
+    <t>0.656+/-0.024</t>
+  </si>
+  <si>
+    <t>0.567</t>
+  </si>
+  <si>
+    <t>25.292+/-0.224</t>
   </si>
 </sst>
 </file>
@@ -1392,19 +1401,19 @@
         <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1424,19 +1433,19 @@
         <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1456,19 +1465,19 @@
         <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1488,19 +1497,19 @@
         <v>46</v>
       </c>
       <c r="F5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1520,19 +1529,19 @@
         <v>47</v>
       </c>
       <c r="F6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1552,19 +1561,19 @@
         <v>48</v>
       </c>
       <c r="F7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1584,19 +1593,19 @@
         <v>49</v>
       </c>
       <c r="F8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1616,19 +1625,19 @@
         <v>50</v>
       </c>
       <c r="F9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1645,22 +1654,22 @@
         <v>41</v>
       </c>
       <c r="E10" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="F10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1677,22 +1686,22 @@
         <v>42</v>
       </c>
       <c r="E11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1748,25 +1757,25 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1777,28 +1786,28 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J3" t="s">
-        <v>84</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1806,31 +1815,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G4" t="s">
-        <v>75</v>
+        <v>140</v>
       </c>
       <c r="H4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="J4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1844,25 +1853,25 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G5" t="s">
         <v>141</v>
       </c>
       <c r="H5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1873,28 +1882,28 @@
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G6" t="s">
         <v>142</v>
       </c>
       <c r="H6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1905,28 +1914,28 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G7" t="s">
         <v>143</v>
       </c>
       <c r="H7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="J7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1940,25 +1949,25 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G8" t="s">
         <v>144</v>
       </c>
       <c r="H8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="J8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1969,28 +1978,28 @@
         <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G9" t="s">
         <v>145</v>
       </c>
       <c r="H9" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I9" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J9" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2001,28 +2010,28 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E10" t="s">
-        <v>91</v>
+        <v>127</v>
       </c>
       <c r="F10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G10" t="s">
-        <v>41</v>
+        <v>146</v>
       </c>
       <c r="H10" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="J10" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2030,31 +2039,31 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>104</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
         <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E11" t="s">
-        <v>129</v>
+        <v>51</v>
       </c>
       <c r="F11" t="s">
-        <v>52</v>
+        <v>137</v>
       </c>
       <c r="G11" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I11" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="J11" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -2110,25 +2119,25 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F2" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="G2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2139,28 +2148,28 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D3" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F3" t="s">
         <v>205</v>
       </c>
       <c r="G3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="J3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2168,31 +2177,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D4" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F4" t="s">
         <v>206</v>
       </c>
       <c r="G4" t="s">
-        <v>55</v>
+        <v>121</v>
       </c>
       <c r="H4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="I4" t="s">
-        <v>234</v>
+        <v>41</v>
       </c>
       <c r="J4" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2200,25 +2209,25 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C5" t="s">
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F5" t="s">
         <v>207</v>
       </c>
       <c r="G5" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H5" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I5" t="s">
         <v>235</v>
@@ -2232,25 +2241,25 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D6" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F6" t="s">
         <v>208</v>
       </c>
       <c r="G6" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H6" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I6" t="s">
         <v>236</v>
@@ -2267,25 +2276,25 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F7" t="s">
         <v>209</v>
       </c>
       <c r="G7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="I7" t="s">
-        <v>152</v>
+        <v>237</v>
       </c>
       <c r="J7" t="s">
         <v>246</v>
@@ -2296,31 +2305,31 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C8" t="s">
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E8" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F8" t="s">
         <v>210</v>
       </c>
       <c r="G8" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H8" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="I8" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="J8" t="s">
-        <v>59</v>
+        <v>247</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2328,31 +2337,31 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C9" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D9" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E9" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F9" t="s">
         <v>211</v>
       </c>
       <c r="G9" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H9" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="I9" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="J9" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2363,28 +2372,28 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D10" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E10" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F10" t="s">
         <v>212</v>
       </c>
       <c r="G10" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H10" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I10" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J10" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2392,31 +2401,31 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>104</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>186</v>
       </c>
       <c r="D11" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E11" t="s">
-        <v>129</v>
+        <v>51</v>
       </c>
       <c r="F11" t="s">
-        <v>52</v>
+        <v>213</v>
       </c>
       <c r="G11" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H11" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I11" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="J11" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -2478,19 +2487,19 @@
         <v>268</v>
       </c>
       <c r="F2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="G2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="I2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="J2" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2501,7 +2510,7 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D3" t="s">
         <v>260</v>
@@ -2510,19 +2519,19 @@
         <v>269</v>
       </c>
       <c r="F3" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="G3" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="I3" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="J3" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2530,31 +2539,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D4" t="s">
         <v>261</v>
       </c>
       <c r="E4" t="s">
-        <v>78</v>
+        <v>270</v>
       </c>
       <c r="F4" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G4" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H4" t="s">
-        <v>61</v>
+        <v>298</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>308</v>
       </c>
       <c r="J4" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2562,31 +2571,31 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C5" t="s">
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="E5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F5" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G5" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H5" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="I5" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="J5" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2594,31 +2603,31 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C6" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D6" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E6" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F6" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H6" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="I6" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="J6" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2629,28 +2638,28 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D7" t="s">
-        <v>263</v>
+        <v>106</v>
       </c>
       <c r="E7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="I7" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="J7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2658,7 +2667,7 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C8" t="s">
         <v>25</v>
@@ -2667,22 +2676,22 @@
         <v>264</v>
       </c>
       <c r="E8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F8" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G8" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H8" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="I8" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="J8" t="s">
-        <v>318</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2690,31 +2699,31 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C9" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D9" t="s">
         <v>265</v>
       </c>
       <c r="E9" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F9" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G9" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H9" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="I9" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="J9" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2725,28 +2734,28 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>258</v>
+        <v>77</v>
       </c>
       <c r="D10" t="s">
         <v>266</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>276</v>
       </c>
       <c r="F10" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G10" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H10" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I10" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="J10" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2754,7 +2763,7 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>104</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
         <v>32</v>
@@ -2763,22 +2772,22 @@
         <v>267</v>
       </c>
       <c r="E11" t="s">
-        <v>129</v>
+        <v>51</v>
       </c>
       <c r="F11" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G11" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H11" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="I11" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="J11" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Modeling Stage/Results/IMS/Non temporal models/simple_models_results_Date_threshold_100_1_replicas_SMOTE.xlsx
+++ b/Data/Modeling Stage/Results/IMS/Non temporal models/simple_models_results_Date_threshold_100_1_replicas_SMOTE.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="424">
   <si>
     <t>Baseline - Majority Class</t>
   </si>
@@ -73,925 +73,1222 @@
     <t>Recall Test</t>
   </si>
   <si>
+    <t>AUC - Train</t>
+  </si>
+  <si>
+    <t>AUC - Validation</t>
+  </si>
+  <si>
+    <t>AUC - Test</t>
+  </si>
+  <si>
     <t>Time</t>
   </si>
   <si>
     <t>0.5+/-0.0</t>
   </si>
   <si>
+    <t>0.799+/-0.0</t>
+  </si>
+  <si>
     <t>0.798</t>
   </si>
   <si>
-    <t>0.05+/-0.15</t>
+    <t>0.0+/-0.0</t>
   </si>
   <si>
     <t>0.0</t>
   </si>
   <si>
-    <t>0.1+/-0.3</t>
-  </si>
-  <si>
-    <t>0.0+/-0.0</t>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>0.004+/-0.01</t>
   </si>
   <si>
     <t>1.0+/-0.0</t>
   </si>
   <si>
-    <t>0.877+/-0.0</t>
-  </si>
-  <si>
-    <t>0.758</t>
-  </si>
-  <si>
-    <t>0.814+/-0.011</t>
-  </si>
-  <si>
-    <t>0.44</t>
-  </si>
-  <si>
-    <t>0.977+/-0.007</t>
-  </si>
-  <si>
-    <t>0.747</t>
-  </si>
-  <si>
-    <t>0.002+/-0.0</t>
-  </si>
-  <si>
-    <t>0.746+/-0.001</t>
-  </si>
-  <si>
-    <t>0.744+/-0.0</t>
-  </si>
-  <si>
-    <t>0.725</t>
+    <t>0.775+/-0.0</t>
+  </si>
+  <si>
+    <t>0.832</t>
+  </si>
+  <si>
+    <t>0.465+/-0.024</t>
+  </si>
+  <si>
+    <t>0.658</t>
+  </si>
+  <si>
+    <t>0.765+/-0.036</t>
+  </si>
+  <si>
+    <t>0.349</t>
+  </si>
+  <si>
+    <t>0.845+/-0.021</t>
+  </si>
+  <si>
+    <t>0.835</t>
+  </si>
+  <si>
+    <t>0.007+/-0.004</t>
+  </si>
+  <si>
+    <t>0.748+/-0.002</t>
+  </si>
+  <si>
+    <t>0.739+/-0.0</t>
+  </si>
+  <si>
+    <t>0.801</t>
   </si>
   <si>
     <t>0.744+/-0.002</t>
   </si>
   <si>
-    <t>0.742+/-0.014</t>
-  </si>
-  <si>
-    <t>0.399</t>
-  </si>
-  <si>
-    <t>0.752+/-0.002</t>
-  </si>
-  <si>
-    <t>0.749+/-0.023</t>
-  </si>
-  <si>
-    <t>0.72</t>
-  </si>
-  <si>
-    <t>0.182+/-0.007</t>
-  </si>
-  <si>
-    <t>0.657+/-0.002</t>
-  </si>
-  <si>
-    <t>0.656+/-0.0</t>
-  </si>
-  <si>
-    <t>0.553</t>
-  </si>
-  <si>
-    <t>0.626+/-0.002</t>
-  </si>
-  <si>
-    <t>0.625+/-0.009</t>
-  </si>
-  <si>
-    <t>0.272</t>
+    <t>0.416+/-0.015</t>
+  </si>
+  <si>
+    <t>0.519</t>
+  </si>
+  <si>
+    <t>0.755+/-0.003</t>
+  </si>
+  <si>
+    <t>0.733+/-0.047</t>
+  </si>
+  <si>
+    <t>0.187</t>
+  </si>
+  <si>
+    <t>0.797+/-0.002</t>
+  </si>
+  <si>
+    <t>0.785+/-0.015</t>
+  </si>
+  <si>
+    <t>0.785</t>
+  </si>
+  <si>
+    <t>0.28+/-0.035</t>
+  </si>
+  <si>
+    <t>0.659+/-0.004</t>
+  </si>
+  <si>
+    <t>0.583+/-0.0</t>
+  </si>
+  <si>
+    <t>0.687</t>
+  </si>
+  <si>
+    <t>0.628+/-0.003</t>
+  </si>
+  <si>
+    <t>0.293+/-0.012</t>
+  </si>
+  <si>
+    <t>0.34</t>
+  </si>
+  <si>
+    <t>0.78+/-0.004</t>
+  </si>
+  <si>
+    <t>0.76+/-0.029</t>
+  </si>
+  <si>
+    <t>0.589</t>
+  </si>
+  <si>
+    <t>0.735+/-0.002</t>
+  </si>
+  <si>
+    <t>0.723+/-0.018</t>
+  </si>
+  <si>
+    <t>0.697</t>
+  </si>
+  <si>
+    <t>0.009+/-0.0</t>
+  </si>
+  <si>
+    <t>0.698+/-0.002</t>
+  </si>
+  <si>
+    <t>0.686+/-0.0</t>
+  </si>
+  <si>
+    <t>0.754</t>
+  </si>
+  <si>
+    <t>0.693+/-0.002</t>
+  </si>
+  <si>
+    <t>0.357+/-0.013</t>
+  </si>
+  <si>
+    <t>0.407</t>
+  </si>
+  <si>
+    <t>0.714+/-0.005</t>
+  </si>
+  <si>
+    <t>0.696+/-0.035</t>
+  </si>
+  <si>
+    <t>0.477</t>
+  </si>
+  <si>
+    <t>0.768+/-0.001</t>
+  </si>
+  <si>
+    <t>0.755+/-0.015</t>
+  </si>
+  <si>
+    <t>0.724</t>
+  </si>
+  <si>
+    <t>0.036+/-0.034</t>
+  </si>
+  <si>
+    <t>0.927+/-0.006</t>
+  </si>
+  <si>
+    <t>0.851+/-0.0</t>
+  </si>
+  <si>
+    <t>0.877</t>
+  </si>
+  <si>
+    <t>0.916+/-0.011</t>
+  </si>
+  <si>
+    <t>0.608+/-0.044</t>
+  </si>
+  <si>
+    <t>0.797</t>
+  </si>
+  <si>
+    <t>0.941+/-0.014</t>
+  </si>
+  <si>
+    <t>0.749+/-0.044</t>
+  </si>
+  <si>
+    <t>0.523</t>
+  </si>
+  <si>
+    <t>0.979+/-0.003</t>
+  </si>
+  <si>
+    <t>0.9+/-0.014</t>
+  </si>
+  <si>
+    <t>0.908</t>
+  </si>
+  <si>
+    <t>61.655+/-22.383</t>
+  </si>
+  <si>
+    <t>0.94+/-0.006</t>
+  </si>
+  <si>
+    <t>0.836+/-0.0</t>
+  </si>
+  <si>
+    <t>0.866</t>
+  </si>
+  <si>
+    <t>0.921+/-0.008</t>
+  </si>
+  <si>
+    <t>0.569+/-0.023</t>
+  </si>
+  <si>
+    <t>0.698</t>
+  </si>
+  <si>
+    <t>0.964+/-0.009</t>
+  </si>
+  <si>
+    <t>0.774+/-0.042</t>
+  </si>
+  <si>
+    <t>0.587</t>
+  </si>
+  <si>
+    <t>0.982+/-0.002</t>
+  </si>
+  <si>
+    <t>0.845+/-0.024</t>
+  </si>
+  <si>
+    <t>0.838</t>
+  </si>
+  <si>
+    <t>0.203+/-0.02</t>
+  </si>
+  <si>
+    <t>0.932+/-0.006</t>
+  </si>
+  <si>
+    <t>0.834+/-0.0</t>
+  </si>
+  <si>
+    <t>0.868</t>
+  </si>
+  <si>
+    <t>0.907+/-0.011</t>
+  </si>
+  <si>
+    <t>0.564+/-0.032</t>
+  </si>
+  <si>
+    <t>0.694</t>
+  </si>
+  <si>
+    <t>0.962+/-0.009</t>
+  </si>
+  <si>
+    <t>0.792+/-0.042</t>
+  </si>
+  <si>
+    <t>0.616</t>
+  </si>
+  <si>
+    <t>0.984+/-0.002</t>
+  </si>
+  <si>
+    <t>0.861+/-0.021</t>
+  </si>
+  <si>
+    <t>0.85</t>
+  </si>
+  <si>
+    <t>0.353+/-0.057</t>
+  </si>
+  <si>
+    <t>0.888+/-0.002</t>
+  </si>
+  <si>
+    <t>0.817+/-0.0</t>
+  </si>
+  <si>
+    <t>0.845</t>
+  </si>
+  <si>
+    <t>0.848+/-0.003</t>
+  </si>
+  <si>
+    <t>0.53+/-0.021</t>
+  </si>
+  <si>
+    <t>0.762</t>
+  </si>
+  <si>
+    <t>0.946+/-0.004</t>
+  </si>
+  <si>
+    <t>0.832+/-0.046</t>
+  </si>
+  <si>
+    <t>0.333</t>
+  </si>
+  <si>
+    <t>0.952+/-0.001</t>
+  </si>
+  <si>
+    <t>0.9+/-0.015</t>
+  </si>
+  <si>
+    <t>0.898</t>
+  </si>
+  <si>
+    <t>36.523+/-2.788</t>
+  </si>
+  <si>
+    <t>0.85+/-0.0</t>
+  </si>
+  <si>
+    <t>0.002+/-0.003</t>
+  </si>
+  <si>
+    <t>0.79+/-0.0</t>
+  </si>
+  <si>
+    <t>0.865</t>
+  </si>
+  <si>
+    <t>0.396+/-0.031</t>
+  </si>
+  <si>
+    <t>0.619</t>
+  </si>
+  <si>
+    <t>0.756+/-0.041</t>
+  </si>
+  <si>
+    <t>0.262</t>
+  </si>
+  <si>
+    <t>0.855+/-0.018</t>
+  </si>
+  <si>
+    <t>0.843</t>
+  </si>
+  <si>
+    <t>0.005+/-0.001</t>
+  </si>
+  <si>
+    <t>0.764+/-0.004</t>
+  </si>
+  <si>
+    <t>0.753+/-0.0</t>
+  </si>
+  <si>
+    <t>0.847</t>
+  </si>
+  <si>
+    <t>0.76+/-0.003</t>
+  </si>
+  <si>
+    <t>0.349+/-0.025</t>
+  </si>
+  <si>
+    <t>0.458</t>
+  </si>
+  <si>
+    <t>0.77+/-0.005</t>
+  </si>
+  <si>
+    <t>0.744+/-0.038</t>
+  </si>
+  <si>
+    <t>0.118</t>
+  </si>
+  <si>
+    <t>0.823+/-0.003</t>
+  </si>
+  <si>
+    <t>0.811+/-0.02</t>
+  </si>
+  <si>
+    <t>0.809</t>
+  </si>
+  <si>
+    <t>0.229+/-0.026</t>
+  </si>
+  <si>
+    <t>0.708+/-0.002</t>
+  </si>
+  <si>
+    <t>0.683+/-0.0</t>
+  </si>
+  <si>
+    <t>0.783</t>
+  </si>
+  <si>
+    <t>0.693+/-0.004</t>
+  </si>
+  <si>
+    <t>0.285+/-0.02</t>
+  </si>
+  <si>
+    <t>0.339</t>
+  </si>
+  <si>
+    <t>0.747+/-0.01</t>
+  </si>
+  <si>
+    <t>0.737+/-0.048</t>
+  </si>
+  <si>
+    <t>0.47</t>
+  </si>
+  <si>
+    <t>0.77+/-0.002</t>
+  </si>
+  <si>
+    <t>0.761+/-0.021</t>
+  </si>
+  <si>
+    <t>0.744</t>
+  </si>
+  <si>
+    <t>0.012+/-0.005</t>
+  </si>
+  <si>
+    <t>0.75+/-0.004</t>
+  </si>
+  <si>
+    <t>0.74+/-0.0</t>
+  </si>
+  <si>
+    <t>0.826</t>
+  </si>
+  <si>
+    <t>0.745+/-0.002</t>
+  </si>
+  <si>
+    <t>0.335+/-0.022</t>
+  </si>
+  <si>
+    <t>0.423</t>
+  </si>
+  <si>
+    <t>0.758+/-0.007</t>
+  </si>
+  <si>
+    <t>0.74+/-0.032</t>
+  </si>
+  <si>
+    <t>0.444</t>
+  </si>
+  <si>
+    <t>0.815+/-0.002</t>
+  </si>
+  <si>
+    <t>0.804+/-0.022</t>
+  </si>
+  <si>
+    <t>0.778</t>
+  </si>
+  <si>
+    <t>0.014+/-0.002</t>
+  </si>
+  <si>
+    <t>0.929+/-0.005</t>
+  </si>
+  <si>
+    <t>0.883</t>
+  </si>
+  <si>
+    <t>0.909+/-0.012</t>
+  </si>
+  <si>
+    <t>0.503+/-0.04</t>
+  </si>
+  <si>
+    <t>0.629</t>
+  </si>
+  <si>
+    <t>0.953+/-0.014</t>
+  </si>
+  <si>
+    <t>0.722+/-0.052</t>
+  </si>
+  <si>
+    <t>0.541</t>
+  </si>
+  <si>
+    <t>0.977+/-0.003</t>
+  </si>
+  <si>
+    <t>0.892+/-0.02</t>
+  </si>
+  <si>
+    <t>0.905</t>
+  </si>
+  <si>
+    <t>34.41+/-17.33</t>
+  </si>
+  <si>
+    <t>0.942+/-0.004</t>
+  </si>
+  <si>
+    <t>0.845+/-0.0</t>
+  </si>
+  <si>
+    <t>0.875</t>
+  </si>
+  <si>
+    <t>0.919+/-0.008</t>
+  </si>
+  <si>
+    <t>0.49+/-0.025</t>
+  </si>
+  <si>
+    <t>0.607</t>
+  </si>
+  <si>
+    <t>0.969+/-0.007</t>
+  </si>
+  <si>
+    <t>0.763+/-0.038</t>
+  </si>
+  <si>
+    <t>0.466</t>
+  </si>
+  <si>
+    <t>0.98+/-0.002</t>
+  </si>
+  <si>
+    <t>0.831+/-0.035</t>
+  </si>
+  <si>
+    <t>0.827</t>
+  </si>
+  <si>
+    <t>0.19+/-0.031</t>
+  </si>
+  <si>
+    <t>0.931+/-0.002</t>
+  </si>
+  <si>
+    <t>0.843+/-0.0</t>
+  </si>
+  <si>
+    <t>0.885</t>
+  </si>
+  <si>
+    <t>0.907+/-0.006</t>
+  </si>
+  <si>
+    <t>0.487+/-0.021</t>
+  </si>
+  <si>
+    <t>0.662</t>
+  </si>
+  <si>
+    <t>0.78+/-0.04</t>
+  </si>
+  <si>
+    <t>0.98+/-0.001</t>
+  </si>
+  <si>
+    <t>0.855+/-0.021</t>
+  </si>
+  <si>
+    <t>0.851</t>
+  </si>
+  <si>
+    <t>0.299+/-0.044</t>
+  </si>
+  <si>
+    <t>0.89+/-0.002</t>
+  </si>
+  <si>
+    <t>0.81+/-0.0</t>
+  </si>
+  <si>
+    <t>0.862</t>
+  </si>
+  <si>
+    <t>0.843+/-0.002</t>
+  </si>
+  <si>
+    <t>0.432+/-0.012</t>
+  </si>
+  <si>
+    <t>0.672</t>
+  </si>
+  <si>
+    <t>0.959+/-0.003</t>
+  </si>
+  <si>
+    <t>0.842+/-0.027</t>
+  </si>
+  <si>
+    <t>0.161</t>
+  </si>
+  <si>
+    <t>0.953+/-0.001</t>
+  </si>
+  <si>
+    <t>0.893+/-0.012</t>
+  </si>
+  <si>
+    <t>0.886</t>
+  </si>
+  <si>
+    <t>38.941+/-1.048</t>
+  </si>
+  <si>
+    <t>0.723+/-0.0</t>
+  </si>
+  <si>
+    <t>0.723</t>
+  </si>
+  <si>
+    <t>0.001+/-0.0</t>
+  </si>
+  <si>
+    <t>0.586+/-0.0</t>
+  </si>
+  <si>
+    <t>0.71</t>
+  </si>
+  <si>
+    <t>0.359+/-0.018</t>
+  </si>
+  <si>
+    <t>0.457</t>
+  </si>
+  <si>
+    <t>0.627+/-0.025</t>
+  </si>
+  <si>
+    <t>0.249</t>
+  </si>
+  <si>
+    <t>0.629+/-0.023</t>
+  </si>
+  <si>
+    <t>0.644</t>
+  </si>
+  <si>
+    <t>0.602+/-0.003</t>
+  </si>
+  <si>
+    <t>0.598+/-0.0</t>
+  </si>
+  <si>
+    <t>0.731</t>
+  </si>
+  <si>
+    <t>0.363+/-0.012</t>
+  </si>
+  <si>
+    <t>0.632</t>
+  </si>
+  <si>
+    <t>0.604+/-0.006</t>
+  </si>
+  <si>
+    <t>0.598+/-0.038</t>
+  </si>
+  <si>
+    <t>0.07</t>
+  </si>
+  <si>
+    <t>0.643+/-0.003</t>
+  </si>
+  <si>
+    <t>0.635+/-0.018</t>
+  </si>
+  <si>
+    <t>0.653</t>
+  </si>
+  <si>
+    <t>0.156+/-0.024</t>
+  </si>
+  <si>
+    <t>0.577+/-0.003</t>
+  </si>
+  <si>
+    <t>0.614+/-0.0</t>
+  </si>
+  <si>
+    <t>0.682</t>
+  </si>
+  <si>
+    <t>0.595+/-0.005</t>
+  </si>
+  <si>
+    <t>0.351+/-0.017</t>
+  </si>
+  <si>
+    <t>0.386</t>
+  </si>
+  <si>
+    <t>0.482+/-0.034</t>
+  </si>
+  <si>
+    <t>0.464+/-0.034</t>
+  </si>
+  <si>
+    <t>0.621+/-0.002</t>
+  </si>
+  <si>
+    <t>0.612+/-0.018</t>
+  </si>
+  <si>
+    <t>0.618</t>
+  </si>
+  <si>
+    <t>0.01+/-0.005</t>
+  </si>
+  <si>
+    <t>0.576+/-0.003</t>
+  </si>
+  <si>
+    <t>0.575+/-0.0</t>
+  </si>
+  <si>
+    <t>0.678</t>
+  </si>
+  <si>
+    <t>0.577+/-0.002</t>
+  </si>
+  <si>
+    <t>0.338+/-0.013</t>
+  </si>
+  <si>
+    <t>0.37</t>
+  </si>
+  <si>
+    <t>0.567+/-0.005</t>
+  </si>
+  <si>
+    <t>0.56+/-0.033</t>
+  </si>
+  <si>
+    <t>0.231</t>
+  </si>
+  <si>
+    <t>0.61+/-0.002</t>
+  </si>
+  <si>
+    <t>0.606+/-0.016</t>
+  </si>
+  <si>
+    <t>0.612</t>
+  </si>
+  <si>
+    <t>0.014+/-0.005</t>
+  </si>
+  <si>
+    <t>0.773+/-0.009</t>
+  </si>
+  <si>
+    <t>0.652+/-0.0</t>
+  </si>
+  <si>
+    <t>0.735</t>
+  </si>
+  <si>
+    <t>0.763+/-0.022</t>
+  </si>
+  <si>
+    <t>0.41+/-0.026</t>
+  </si>
+  <si>
+    <t>0.536</t>
+  </si>
+  <si>
+    <t>0.796+/-0.041</t>
+  </si>
+  <si>
+    <t>0.569+/-0.038</t>
+  </si>
+  <si>
+    <t>0.315</t>
+  </si>
+  <si>
+    <t>0.857+/-0.008</t>
+  </si>
+  <si>
+    <t>0.673+/-0.019</t>
+  </si>
+  <si>
+    <t>0.738</t>
+  </si>
+  <si>
+    <t>34.237+/-12.92</t>
+  </si>
+  <si>
+    <t>0.824+/-0.01</t>
+  </si>
+  <si>
+    <t>0.717+/-0.0</t>
+  </si>
+  <si>
+    <t>0.768</t>
+  </si>
+  <si>
+    <t>0.838+/-0.013</t>
+  </si>
+  <si>
+    <t>0.492+/-0.025</t>
+  </si>
+  <si>
+    <t>0.608</t>
+  </si>
+  <si>
+    <t>0.804+/-0.019</t>
+  </si>
+  <si>
+    <t>0.609+/-0.035</t>
+  </si>
+  <si>
+    <t>0.454</t>
+  </si>
+  <si>
+    <t>0.907+/-0.008</t>
+  </si>
+  <si>
+    <t>0.706+/-0.022</t>
+  </si>
+  <si>
+    <t>0.719</t>
+  </si>
+  <si>
+    <t>0.184+/-0.027</t>
+  </si>
+  <si>
+    <t>0.807+/-0.011</t>
+  </si>
+  <si>
+    <t>0.714+/-0.0</t>
+  </si>
+  <si>
+    <t>0.765</t>
+  </si>
+  <si>
+    <t>0.818+/-0.019</t>
+  </si>
+  <si>
+    <t>0.489+/-0.028</t>
+  </si>
+  <si>
+    <t>0.588</t>
+  </si>
+  <si>
+    <t>0.793+/-0.033</t>
+  </si>
+  <si>
+    <t>0.627+/-0.043</t>
+  </si>
+  <si>
+    <t>0.507</t>
+  </si>
+  <si>
+    <t>0.9+/-0.009</t>
+  </si>
+  <si>
+    <t>0.729+/-0.027</t>
+  </si>
+  <si>
+    <t>0.354+/-0.034</t>
+  </si>
+  <si>
+    <t>0.722+/-0.004</t>
+  </si>
+  <si>
+    <t>0.67+/-0.0</t>
+  </si>
+  <si>
+    <t>0.727</t>
+  </si>
+  <si>
+    <t>0.721+/-0.004</t>
+  </si>
+  <si>
+    <t>0.433+/-0.018</t>
+  </si>
+  <si>
+    <t>0.554</t>
+  </si>
+  <si>
+    <t>0.726+/-0.007</t>
+  </si>
+  <si>
+    <t>0.615+/-0.023</t>
+  </si>
+  <si>
+    <t>0.797+/-0.003</t>
+  </si>
+  <si>
+    <t>0.695+/-0.018</t>
+  </si>
+  <si>
+    <t>0.669</t>
+  </si>
+  <si>
+    <t>49.137+/-2.256</t>
+  </si>
+  <si>
+    <t>0.692+/-0.0</t>
+  </si>
+  <si>
+    <t>0.692</t>
+  </si>
+  <si>
+    <t>0.558+/-0.0</t>
+  </si>
+  <si>
+    <t>0.683</t>
+  </si>
+  <si>
+    <t>0.367+/-0.018</t>
+  </si>
+  <si>
+    <t>0.473</t>
+  </si>
+  <si>
+    <t>0.6+/-0.026</t>
+  </si>
+  <si>
+    <t>0.599+/-0.015</t>
+  </si>
+  <si>
+    <t>0.614</t>
+  </si>
+  <si>
+    <t>0.006+/-0.003</t>
+  </si>
+  <si>
+    <t>0.587+/-0.003</t>
+  </si>
+  <si>
+    <t>0.581+/-0.0</t>
+  </si>
+  <si>
+    <t>0.381+/-0.018</t>
+  </si>
+  <si>
+    <t>0.611</t>
+  </si>
+  <si>
+    <t>0.588+/-0.009</t>
+  </si>
+  <si>
+    <t>0.571+/-0.033</t>
+  </si>
+  <si>
+    <t>0.058</t>
+  </si>
+  <si>
+    <t>0.619+/-0.003</t>
+  </si>
+  <si>
+    <t>0.606+/-0.02</t>
+  </si>
+  <si>
+    <t>0.62</t>
+  </si>
+  <si>
+    <t>0.175+/-0.013</t>
+  </si>
+  <si>
+    <t>0.563+/-0.006</t>
+  </si>
+  <si>
+    <t>0.574+/-0.0</t>
+  </si>
+  <si>
+    <t>0.654</t>
+  </si>
+  <si>
+    <t>0.568+/-0.005</t>
+  </si>
+  <si>
+    <t>0.365+/-0.018</t>
+  </si>
+  <si>
+    <t>0.409</t>
+  </si>
+  <si>
+    <t>0.529+/-0.051</t>
+  </si>
+  <si>
+    <t>0.518+/-0.051</t>
+  </si>
+  <si>
+    <t>0.277</t>
+  </si>
+  <si>
+    <t>0.592+/-0.003</t>
+  </si>
+  <si>
+    <t>0.583+/-0.02</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>0.01+/-0.001</t>
+  </si>
+  <si>
+    <t>0.561+/-0.003</t>
+  </si>
+  <si>
+    <t>0.564+/-0.0</t>
+  </si>
+  <si>
+    <t>0.648</t>
+  </si>
+  <si>
+    <t>0.563+/-0.003</t>
+  </si>
+  <si>
+    <t>0.36+/-0.016</t>
+  </si>
+  <si>
+    <t>0.398</t>
+  </si>
+  <si>
+    <t>0.544+/-0.006</t>
+  </si>
+  <si>
+    <t>0.538+/-0.038</t>
+  </si>
+  <si>
+    <t>0.586+/-0.002</t>
+  </si>
+  <si>
+    <t>0.581+/-0.015</t>
+  </si>
+  <si>
+    <t>0.594</t>
+  </si>
+  <si>
+    <t>0.756+/-0.008</t>
+  </si>
+  <si>
+    <t>0.628+/-0.0</t>
+  </si>
+  <si>
+    <t>0.703</t>
+  </si>
+  <si>
+    <t>0.75+/-0.027</t>
+  </si>
+  <si>
+    <t>0.424+/-0.024</t>
+  </si>
+  <si>
+    <t>0.528</t>
+  </si>
+  <si>
+    <t>0.773+/-0.046</t>
+  </si>
+  <si>
+    <t>0.558+/-0.067</t>
+  </si>
+  <si>
+    <t>0.325</t>
+  </si>
+  <si>
+    <t>0.843+/-0.008</t>
+  </si>
+  <si>
+    <t>0.644+/-0.024</t>
+  </si>
+  <si>
+    <t>0.674</t>
+  </si>
+  <si>
+    <t>14.34+/-6.233</t>
+  </si>
+  <si>
+    <t>0.801+/-0.01</t>
+  </si>
+  <si>
+    <t>0.69+/-0.0</t>
+  </si>
+  <si>
+    <t>0.736</t>
+  </si>
+  <si>
+    <t>0.823+/-0.02</t>
+  </si>
+  <si>
+    <t>0.499+/-0.029</t>
+  </si>
+  <si>
+    <t>0.595</t>
+  </si>
+  <si>
+    <t>0.767+/-0.026</t>
+  </si>
+  <si>
+    <t>0.574+/-0.039</t>
+  </si>
+  <si>
+    <t>0.449</t>
+  </si>
+  <si>
+    <t>0.889+/-0.007</t>
+  </si>
+  <si>
+    <t>0.682+/-0.027</t>
+  </si>
+  <si>
+    <t>0.688</t>
+  </si>
+  <si>
+    <t>0.186+/-0.012</t>
   </si>
   <si>
     <t>0.782+/-0.007</t>
   </si>
   <si>
-    <t>0.781+/-0.023</t>
-  </si>
-  <si>
-    <t>0.005+/-0.001</t>
-  </si>
-  <si>
-    <t>0.699+/-0.002</t>
-  </si>
-  <si>
-    <t>0.699+/-0.0</t>
-  </si>
-  <si>
-    <t>0.662</t>
-  </si>
-  <si>
-    <t>0.693+/-0.002</t>
-  </si>
-  <si>
-    <t>0.693+/-0.011</t>
-  </si>
-  <si>
-    <t>0.334</t>
-  </si>
-  <si>
-    <t>0.714+/-0.002</t>
-  </si>
-  <si>
-    <t>0.713+/-0.023</t>
-  </si>
-  <si>
-    <t>0.683</t>
-  </si>
-  <si>
-    <t>0.007+/-0.001</t>
-  </si>
-  <si>
-    <t>0.921+/-0.004</t>
-  </si>
-  <si>
-    <t>0.893+/-0.0</t>
-  </si>
-  <si>
-    <t>0.832</t>
-  </si>
-  <si>
-    <t>0.904+/-0.012</t>
-  </si>
-  <si>
-    <t>0.877+/-0.012</t>
-  </si>
-  <si>
-    <t>0.56</t>
-  </si>
-  <si>
-    <t>0.942+/-0.015</t>
-  </si>
-  <si>
-    <t>0.914+/-0.02</t>
-  </si>
-  <si>
-    <t>0.776</t>
-  </si>
-  <si>
-    <t>3.304+/-0.754</t>
-  </si>
-  <si>
-    <t>0.939+/-0.002</t>
-  </si>
-  <si>
-    <t>0.881+/-0.0</t>
-  </si>
-  <si>
-    <t>0.848</t>
-  </si>
-  <si>
-    <t>0.922+/-0.004</t>
-  </si>
-  <si>
-    <t>0.862+/-0.011</t>
-  </si>
-  <si>
-    <t>0.597</t>
-  </si>
-  <si>
-    <t>0.961+/-0.008</t>
-  </si>
-  <si>
-    <t>0.908+/-0.015</t>
-  </si>
-  <si>
-    <t>0.752</t>
-  </si>
-  <si>
-    <t>0.132+/-0.006</t>
-  </si>
-  <si>
-    <t>0.93+/-0.002</t>
-  </si>
-  <si>
-    <t>0.878+/-0.0</t>
-  </si>
-  <si>
-    <t>0.837</t>
-  </si>
-  <si>
-    <t>0.909+/-0.004</t>
-  </si>
-  <si>
-    <t>0.856+/-0.012</t>
-  </si>
-  <si>
-    <t>0.569</t>
-  </si>
-  <si>
-    <t>0.955+/-0.008</t>
-  </si>
-  <si>
-    <t>0.911+/-0.016</t>
-  </si>
-  <si>
-    <t>0.795</t>
-  </si>
-  <si>
-    <t>0.171+/-0.003</t>
-  </si>
-  <si>
-    <t>0.885+/-0.001</t>
-  </si>
-  <si>
-    <t>0.874+/-0.0</t>
-  </si>
-  <si>
-    <t>0.821</t>
-  </si>
-  <si>
-    <t>0.843+/-0.001</t>
-  </si>
-  <si>
-    <t>0.832+/-0.012</t>
-  </si>
-  <si>
-    <t>0.537</t>
-  </si>
-  <si>
-    <t>0.946+/-0.002</t>
-  </si>
-  <si>
-    <t>0.937+/-0.008</t>
-  </si>
-  <si>
-    <t>0.811</t>
-  </si>
-  <si>
-    <t>19.077+/-0.229</t>
-  </si>
-  <si>
-    <t>0.85</t>
-  </si>
-  <si>
-    <t>0.892+/-0.0</t>
-  </si>
-  <si>
-    <t>0.789</t>
-  </si>
-  <si>
-    <t>0.827+/-0.013</t>
-  </si>
-  <si>
-    <t>0.394</t>
-  </si>
-  <si>
-    <t>0.991+/-0.003</t>
-  </si>
-  <si>
-    <t>0.749</t>
-  </si>
-  <si>
-    <t>0.765+/-0.001</t>
-  </si>
-  <si>
-    <t>0.764+/-0.0</t>
-  </si>
-  <si>
-    <t>0.754</t>
-  </si>
-  <si>
-    <t>0.761+/-0.001</t>
-  </si>
-  <si>
-    <t>0.761+/-0.012</t>
-  </si>
-  <si>
-    <t>0.353</t>
-  </si>
-  <si>
-    <t>0.772+/-0.002</t>
-  </si>
-  <si>
-    <t>0.77+/-0.024</t>
-  </si>
-  <si>
-    <t>0.771</t>
-  </si>
-  <si>
-    <t>0.178+/-0.009</t>
-  </si>
-  <si>
-    <t>0.709+/-0.001</t>
-  </si>
-  <si>
-    <t>0.709+/-0.0</t>
-  </si>
-  <si>
-    <t>0.655</t>
-  </si>
-  <si>
-    <t>0.69+/-0.004</t>
-  </si>
-  <si>
-    <t>0.691+/-0.01</t>
-  </si>
-  <si>
-    <t>0.264</t>
-  </si>
-  <si>
-    <t>0.76+/-0.008</t>
-  </si>
-  <si>
-    <t>0.758+/-0.02</t>
-  </si>
-  <si>
-    <t>0.728</t>
-  </si>
-  <si>
-    <t>0.748+/-0.002</t>
-  </si>
-  <si>
-    <t>0.747+/-0.0</t>
-  </si>
-  <si>
-    <t>0.712</t>
-  </si>
-  <si>
-    <t>0.743+/-0.002</t>
-  </si>
-  <si>
-    <t>0.743+/-0.014</t>
-  </si>
-  <si>
-    <t>0.296</t>
-  </si>
-  <si>
-    <t>0.757+/-0.002</t>
-  </si>
-  <si>
-    <t>0.756+/-0.015</t>
-  </si>
-  <si>
-    <t>0.667</t>
-  </si>
-  <si>
-    <t>0.006+/-0.001</t>
-  </si>
-  <si>
-    <t>0.923+/-0.004</t>
-  </si>
-  <si>
-    <t>0.894+/-0.0</t>
-  </si>
-  <si>
-    <t>0.864</t>
-  </si>
-  <si>
-    <t>0.903+/-0.019</t>
-  </si>
-  <si>
-    <t>0.869+/-0.018</t>
-  </si>
-  <si>
-    <t>0.534</t>
-  </si>
-  <si>
-    <t>0.95+/-0.027</t>
-  </si>
-  <si>
-    <t>0.931+/-0.026</t>
-  </si>
-  <si>
-    <t>0.724</t>
-  </si>
-  <si>
-    <t>3.853+/-0.897</t>
-  </si>
-  <si>
-    <t>0.938+/-0.003</t>
-  </si>
-  <si>
-    <t>0.888+/-0.0</t>
-  </si>
-  <si>
-    <t>0.838</t>
-  </si>
-  <si>
-    <t>0.914+/-0.005</t>
-  </si>
-  <si>
-    <t>0.863+/-0.007</t>
-  </si>
-  <si>
-    <t>0.475</t>
-  </si>
-  <si>
-    <t>0.968+/-0.003</t>
-  </si>
-  <si>
-    <t>0.923+/-0.011</t>
-  </si>
-  <si>
-    <t>0.735</t>
-  </si>
-  <si>
-    <t>0.122+/-0.007</t>
-  </si>
-  <si>
-    <t>0.927+/-0.003</t>
-  </si>
-  <si>
-    <t>0.886+/-0.0</t>
-  </si>
-  <si>
-    <t>0.846</t>
-  </si>
-  <si>
-    <t>0.898+/-0.006</t>
-  </si>
-  <si>
-    <t>0.857+/-0.011</t>
-  </si>
-  <si>
-    <t>0.491</t>
-  </si>
-  <si>
-    <t>0.964+/-0.006</t>
-  </si>
-  <si>
-    <t>0.927+/-0.013</t>
-  </si>
-  <si>
-    <t>0.753</t>
-  </si>
-  <si>
-    <t>0.164+/-0.003</t>
-  </si>
-  <si>
-    <t>0.887+/-0.001</t>
-  </si>
-  <si>
-    <t>0.823</t>
-  </si>
-  <si>
-    <t>0.841+/-0.001</t>
-  </si>
-  <si>
-    <t>0.832+/-0.007</t>
-  </si>
-  <si>
-    <t>0.452</t>
-  </si>
-  <si>
-    <t>0.955+/-0.001</t>
-  </si>
-  <si>
-    <t>0.946+/-0.008</t>
-  </si>
-  <si>
-    <t>0.839</t>
-  </si>
-  <si>
-    <t>19.864+/-0.323</t>
-  </si>
-  <si>
-    <t>0.723</t>
-  </si>
-  <si>
-    <t>0.15+/-0.229</t>
-  </si>
-  <si>
-    <t>0.3+/-0.458</t>
-  </si>
-  <si>
-    <t>0.742+/-0.0</t>
-  </si>
-  <si>
-    <t>0.584</t>
-  </si>
-  <si>
-    <t>0.676+/-0.009</t>
-  </si>
-  <si>
-    <t>0.359</t>
-  </si>
-  <si>
-    <t>0.93+/-0.01</t>
-  </si>
-  <si>
-    <t>0.643</t>
-  </si>
-  <si>
-    <t>0.002+/-0.001</t>
-  </si>
-  <si>
-    <t>0.6+/-0.001</t>
-  </si>
-  <si>
-    <t>0.598+/-0.0</t>
-  </si>
-  <si>
-    <t>0.612</t>
-  </si>
-  <si>
-    <t>0.598+/-0.001</t>
-  </si>
-  <si>
-    <t>0.597+/-0.007</t>
-  </si>
-  <si>
-    <t>0.377</t>
-  </si>
-  <si>
-    <t>0.609+/-0.004</t>
-  </si>
-  <si>
-    <t>0.606+/-0.02</t>
-  </si>
-  <si>
-    <t>0.111+/-0.006</t>
-  </si>
-  <si>
-    <t>0.568+/-0.002</t>
-  </si>
-  <si>
-    <t>0.568+/-0.0</t>
-  </si>
-  <si>
-    <t>0.628</t>
-  </si>
-  <si>
-    <t>0.588+/-0.003</t>
-  </si>
-  <si>
-    <t>0.587+/-0.013</t>
-  </si>
-  <si>
-    <t>0.363</t>
-  </si>
-  <si>
-    <t>0.456+/-0.021</t>
-  </si>
-  <si>
-    <t>0.455+/-0.027</t>
-  </si>
-  <si>
-    <t>0.456</t>
-  </si>
-  <si>
-    <t>0.567+/-0.0</t>
-  </si>
-  <si>
-    <t>0.582</t>
-  </si>
-  <si>
-    <t>0.571+/-0.002</t>
-  </si>
-  <si>
-    <t>0.57+/-0.011</t>
-  </si>
-  <si>
-    <t>0.343</t>
-  </si>
-  <si>
-    <t>0.548+/-0.002</t>
-  </si>
-  <si>
-    <t>0.546+/-0.017</t>
-  </si>
-  <si>
-    <t>0.555</t>
-  </si>
-  <si>
-    <t>0.007+/-0.002</t>
-  </si>
-  <si>
-    <t>0.768+/-0.008</t>
-  </si>
-  <si>
-    <t>0.71+/-0.0</t>
-  </si>
-  <si>
-    <t>0.755+/-0.016</t>
-  </si>
-  <si>
-    <t>0.7+/-0.022</t>
-  </si>
-  <si>
-    <t>0.415</t>
-  </si>
-  <si>
-    <t>0.797+/-0.04</t>
-  </si>
-  <si>
-    <t>0.738+/-0.048</t>
-  </si>
-  <si>
-    <t>0.596</t>
-  </si>
-  <si>
-    <t>3.726+/-0.538</t>
-  </si>
-  <si>
-    <t>0.823+/-0.009</t>
-  </si>
-  <si>
-    <t>0.736+/-0.0</t>
-  </si>
-  <si>
-    <t>0.706</t>
-  </si>
-  <si>
-    <t>0.83+/-0.011</t>
-  </si>
-  <si>
-    <t>0.739+/-0.015</t>
-  </si>
-  <si>
-    <t>0.478</t>
-  </si>
-  <si>
-    <t>0.813+/-0.02</t>
-  </si>
-  <si>
-    <t>0.728+/-0.027</t>
-  </si>
-  <si>
-    <t>0.658</t>
-  </si>
-  <si>
-    <t>0.118+/-0.014</t>
-  </si>
-  <si>
-    <t>0.796+/-0.007</t>
-  </si>
-  <si>
-    <t>0.735+/-0.0</t>
-  </si>
-  <si>
-    <t>0.805+/-0.01</t>
-  </si>
-  <si>
-    <t>0.743+/-0.018</t>
-  </si>
-  <si>
-    <t>0.496</t>
-  </si>
-  <si>
-    <t>0.781+/-0.022</t>
-  </si>
-  <si>
-    <t>0.72+/-0.031</t>
-  </si>
-  <si>
-    <t>0.65</t>
-  </si>
-  <si>
-    <t>0.156+/-0.003</t>
-  </si>
-  <si>
-    <t>0.723+/-0.002</t>
-  </si>
-  <si>
-    <t>0.692+/-0.0</t>
-  </si>
-  <si>
-    <t>0.718+/-0.002</t>
-  </si>
-  <si>
-    <t>0.687+/-0.011</t>
-  </si>
-  <si>
-    <t>0.418</t>
-  </si>
-  <si>
-    <t>0.733+/-0.004</t>
-  </si>
-  <si>
-    <t>0.706+/-0.013</t>
-  </si>
-  <si>
-    <t>0.604</t>
-  </si>
-  <si>
-    <t>26.906+/-0.259</t>
-  </si>
-  <si>
-    <t>0.692</t>
-  </si>
-  <si>
-    <t>0.25+/-0.25</t>
-  </si>
-  <si>
-    <t>0.5+/-0.5</t>
-  </si>
-  <si>
-    <t>0.722+/-0.0</t>
-  </si>
-  <si>
-    <t>0.562</t>
-  </si>
-  <si>
-    <t>0.664+/-0.011</t>
-  </si>
-  <si>
-    <t>0.37</t>
-  </si>
-  <si>
-    <t>0.9+/-0.012</t>
-  </si>
-  <si>
-    <t>0.584+/-0.003</t>
-  </si>
-  <si>
-    <t>0.582+/-0.0</t>
-  </si>
-  <si>
-    <t>0.594</t>
-  </si>
-  <si>
-    <t>0.582+/-0.003</t>
-  </si>
-  <si>
-    <t>0.58+/-0.014</t>
-  </si>
-  <si>
-    <t>0.595+/-0.005</t>
-  </si>
-  <si>
-    <t>0.593+/-0.017</t>
-  </si>
-  <si>
-    <t>0.593</t>
-  </si>
-  <si>
-    <t>0.121+/-0.004</t>
-  </si>
-  <si>
-    <t>0.564+/-0.002</t>
-  </si>
-  <si>
-    <t>0.562+/-0.0</t>
-  </si>
-  <si>
-    <t>0.57</t>
-  </si>
-  <si>
-    <t>0.561+/-0.005</t>
-  </si>
-  <si>
-    <t>0.559+/-0.01</t>
-  </si>
-  <si>
-    <t>0.374</t>
-  </si>
-  <si>
-    <t>0.591+/-0.026</t>
-  </si>
-  <si>
-    <t>0.588+/-0.034</t>
-  </si>
-  <si>
-    <t>0.583</t>
-  </si>
-  <si>
-    <t>0.564+/-0.001</t>
-  </si>
-  <si>
-    <t>0.579</t>
-  </si>
-  <si>
-    <t>0.566+/-0.001</t>
-  </si>
-  <si>
-    <t>0.563+/-0.018</t>
-  </si>
-  <si>
-    <t>0.376</t>
-  </si>
-  <si>
-    <t>0.553+/-0.002</t>
-  </si>
-  <si>
-    <t>0.551+/-0.032</t>
-  </si>
-  <si>
-    <t>0.557</t>
-  </si>
-  <si>
-    <t>0.006+/-0.0</t>
-  </si>
-  <si>
-    <t>0.75+/-0.007</t>
-  </si>
-  <si>
-    <t>0.676+/-0.0</t>
+    <t>0.697+/-0.0</t>
+  </si>
+  <si>
+    <t>0.741</t>
+  </si>
+  <si>
+    <t>0.814+/-0.024</t>
+  </si>
+  <si>
+    <t>0.509+/-0.022</t>
+  </si>
+  <si>
+    <t>0.617</t>
+  </si>
+  <si>
+    <t>0.734+/-0.035</t>
+  </si>
+  <si>
+    <t>0.584+/-0.041</t>
+  </si>
+  <si>
+    <t>0.419</t>
+  </si>
+  <si>
+    <t>0.877+/-0.006</t>
+  </si>
+  <si>
+    <t>0.698+/-0.024</t>
+  </si>
+  <si>
+    <t>0.685</t>
+  </si>
+  <si>
+    <t>0.285+/-0.017</t>
+  </si>
+  <si>
+    <t>0.705+/-0.004</t>
+  </si>
+  <si>
+    <t>0.638+/-0.0</t>
+  </si>
+  <si>
+    <t>0.695</t>
+  </si>
+  <si>
+    <t>0.705+/-0.005</t>
+  </si>
+  <si>
+    <t>0.433+/-0.015</t>
+  </si>
+  <si>
+    <t>0.547</t>
+  </si>
+  <si>
+    <t>0.704+/-0.008</t>
+  </si>
+  <si>
+    <t>0.572+/-0.029</t>
+  </si>
+  <si>
+    <t>0.061</t>
+  </si>
+  <si>
+    <t>0.781+/-0.003</t>
+  </si>
+  <si>
+    <t>0.657+/-0.017</t>
   </si>
   <si>
     <t>0.639</t>
   </si>
   <si>
-    <t>0.75+/-0.027</t>
-  </si>
-  <si>
-    <t>0.676+/-0.025</t>
-  </si>
-  <si>
-    <t>0.439</t>
-  </si>
-  <si>
-    <t>0.755+/-0.056</t>
-  </si>
-  <si>
-    <t>0.685+/-0.065</t>
-  </si>
-  <si>
-    <t>0.616</t>
-  </si>
-  <si>
-    <t>3.619+/-0.419</t>
-  </si>
-  <si>
-    <t>0.801+/-0.006</t>
-  </si>
-  <si>
-    <t>0.717+/-0.0</t>
-  </si>
-  <si>
-    <t>0.702</t>
-  </si>
-  <si>
-    <t>0.828+/-0.019</t>
-  </si>
-  <si>
-    <t>0.736+/-0.023</t>
-  </si>
-  <si>
-    <t>0.513</t>
-  </si>
-  <si>
-    <t>0.76+/-0.026</t>
-  </si>
-  <si>
-    <t>0.679+/-0.038</t>
-  </si>
-  <si>
-    <t>0.64</t>
-  </si>
-  <si>
-    <t>0.117+/-0.01</t>
-  </si>
-  <si>
-    <t>0.785+/-0.005</t>
-  </si>
-  <si>
-    <t>0.714+/-0.0</t>
-  </si>
-  <si>
-    <t>0.696</t>
-  </si>
-  <si>
-    <t>0.814+/-0.016</t>
-  </si>
-  <si>
-    <t>0.737+/-0.014</t>
-  </si>
-  <si>
-    <t>0.505</t>
-  </si>
-  <si>
-    <t>0.74+/-0.021</t>
-  </si>
-  <si>
-    <t>0.668+/-0.044</t>
-  </si>
-  <si>
-    <t>0.637</t>
-  </si>
-  <si>
-    <t>0.162+/-0.007</t>
-  </si>
-  <si>
-    <t>0.699+/-0.003</t>
-  </si>
-  <si>
-    <t>0.659+/-0.0</t>
-  </si>
-  <si>
-    <t>0.634</t>
-  </si>
-  <si>
-    <t>0.702+/-0.004</t>
-  </si>
-  <si>
-    <t>0.66+/-0.013</t>
-  </si>
-  <si>
-    <t>0.429</t>
-  </si>
-  <si>
-    <t>0.656+/-0.024</t>
-  </si>
-  <si>
-    <t>0.567</t>
-  </si>
-  <si>
-    <t>25.292+/-0.224</t>
+    <t>46.767+/-1.365</t>
   </si>
 </sst>
 </file>
@@ -1349,7 +1646,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1389,31 +1686,31 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="F2" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="G2" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="H2" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="I2" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="J2" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1421,31 +1718,31 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="G3" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="H3" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="I3" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="J3" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1453,31 +1750,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="F4" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="G4" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="H4" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="I4" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="J4" t="s">
-        <v>94</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1485,31 +1782,31 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="F5" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="G5" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="H5" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="I5" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="J5" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1517,31 +1814,31 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E6" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="F6" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="G6" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="H6" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="I6" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="J6" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1549,31 +1846,31 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E7" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="F7" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="G7" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="H7" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="I7" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="J7" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1581,31 +1878,31 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E8" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="F8" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="G8" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="H8" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="I8" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="J8" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1613,31 +1910,31 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E9" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="F9" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="G9" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="H9" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="I9" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="J9" t="s">
-        <v>99</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1645,31 +1942,31 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="F10" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="G10" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="H10" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="I10" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="J10" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1677,31 +1974,127 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" t="s">
+        <v>74</v>
+      </c>
+      <c r="G11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H11" t="s">
+        <v>100</v>
+      </c>
+      <c r="I11" t="s">
+        <v>113</v>
+      </c>
+      <c r="J11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" t="s">
+        <v>88</v>
+      </c>
+      <c r="H12" t="s">
+        <v>101</v>
+      </c>
+      <c r="I12" t="s">
+        <v>114</v>
+      </c>
+      <c r="J12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" t="s">
+        <v>76</v>
+      </c>
+      <c r="G13" t="s">
+        <v>89</v>
+      </c>
+      <c r="H13" t="s">
+        <v>102</v>
+      </c>
+      <c r="I13" t="s">
+        <v>115</v>
+      </c>
+      <c r="J13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" t="s">
         <v>51</v>
       </c>
-      <c r="F11" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" t="s">
-        <v>71</v>
-      </c>
-      <c r="H11" t="s">
-        <v>81</v>
-      </c>
-      <c r="I11" t="s">
-        <v>91</v>
-      </c>
-      <c r="J11" t="s">
-        <v>101</v>
+      <c r="E14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" t="s">
+        <v>90</v>
+      </c>
+      <c r="H14" t="s">
+        <v>103</v>
+      </c>
+      <c r="I14" t="s">
+        <v>116</v>
+      </c>
+      <c r="J14" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -1711,7 +2104,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1751,31 +2144,31 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>109</v>
+        <v>141</v>
       </c>
       <c r="E2" t="s">
-        <v>119</v>
+        <v>154</v>
       </c>
       <c r="F2" t="s">
-        <v>128</v>
+        <v>167</v>
       </c>
       <c r="G2" t="s">
-        <v>138</v>
+        <v>180</v>
       </c>
       <c r="H2" t="s">
-        <v>148</v>
+        <v>192</v>
       </c>
       <c r="I2" t="s">
-        <v>158</v>
+        <v>205</v>
       </c>
       <c r="J2" t="s">
-        <v>168</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1783,31 +2176,31 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>130</v>
       </c>
       <c r="C3" t="s">
-        <v>103</v>
+        <v>132</v>
       </c>
       <c r="D3" t="s">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="E3" t="s">
-        <v>120</v>
+        <v>155</v>
       </c>
       <c r="F3" t="s">
-        <v>129</v>
+        <v>168</v>
       </c>
       <c r="G3" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="H3" t="s">
-        <v>149</v>
+        <v>193</v>
       </c>
       <c r="I3" t="s">
-        <v>159</v>
+        <v>206</v>
       </c>
       <c r="J3" t="s">
-        <v>26</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1815,31 +2208,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="C4" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="D4" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="E4" t="s">
-        <v>121</v>
+        <v>156</v>
       </c>
       <c r="F4" t="s">
-        <v>130</v>
+        <v>169</v>
       </c>
       <c r="G4" t="s">
-        <v>140</v>
+        <v>181</v>
       </c>
       <c r="H4" t="s">
-        <v>150</v>
+        <v>194</v>
       </c>
       <c r="I4" t="s">
-        <v>160</v>
+        <v>207</v>
       </c>
       <c r="J4" t="s">
-        <v>169</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1847,31 +2240,31 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>112</v>
+        <v>144</v>
       </c>
       <c r="E5" t="s">
-        <v>122</v>
+        <v>157</v>
       </c>
       <c r="F5" t="s">
-        <v>131</v>
+        <v>170</v>
       </c>
       <c r="G5" t="s">
-        <v>141</v>
+        <v>182</v>
       </c>
       <c r="H5" t="s">
-        <v>151</v>
+        <v>195</v>
       </c>
       <c r="I5" t="s">
-        <v>161</v>
+        <v>208</v>
       </c>
       <c r="J5" t="s">
-        <v>170</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1879,31 +2272,31 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="D6" t="s">
-        <v>113</v>
+        <v>145</v>
       </c>
       <c r="E6" t="s">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="F6" t="s">
-        <v>132</v>
+        <v>171</v>
       </c>
       <c r="G6" t="s">
-        <v>142</v>
+        <v>183</v>
       </c>
       <c r="H6" t="s">
-        <v>152</v>
+        <v>196</v>
       </c>
       <c r="I6" t="s">
-        <v>162</v>
+        <v>209</v>
       </c>
       <c r="J6" t="s">
-        <v>171</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1911,31 +2304,31 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="D7" t="s">
-        <v>114</v>
+        <v>146</v>
       </c>
       <c r="E7" t="s">
-        <v>124</v>
+        <v>159</v>
       </c>
       <c r="F7" t="s">
-        <v>133</v>
+        <v>172</v>
       </c>
       <c r="G7" t="s">
-        <v>143</v>
+        <v>184</v>
       </c>
       <c r="H7" t="s">
-        <v>153</v>
+        <v>197</v>
       </c>
       <c r="I7" t="s">
-        <v>163</v>
+        <v>210</v>
       </c>
       <c r="J7" t="s">
-        <v>172</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1943,31 +2336,31 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>115</v>
+        <v>147</v>
       </c>
       <c r="E8" t="s">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="F8" t="s">
-        <v>134</v>
+        <v>173</v>
       </c>
       <c r="G8" t="s">
-        <v>144</v>
+        <v>185</v>
       </c>
       <c r="H8" t="s">
-        <v>154</v>
+        <v>198</v>
       </c>
       <c r="I8" t="s">
-        <v>164</v>
+        <v>110</v>
       </c>
       <c r="J8" t="s">
-        <v>173</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1975,31 +2368,31 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>107</v>
+        <v>136</v>
       </c>
       <c r="D9" t="s">
-        <v>116</v>
+        <v>148</v>
       </c>
       <c r="E9" t="s">
-        <v>126</v>
+        <v>161</v>
       </c>
       <c r="F9" t="s">
-        <v>135</v>
+        <v>174</v>
       </c>
       <c r="G9" t="s">
-        <v>145</v>
+        <v>186</v>
       </c>
       <c r="H9" t="s">
-        <v>155</v>
+        <v>199</v>
       </c>
       <c r="I9" t="s">
-        <v>165</v>
+        <v>211</v>
       </c>
       <c r="J9" t="s">
-        <v>174</v>
+        <v>223</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2007,31 +2400,31 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="D10" t="s">
-        <v>117</v>
+        <v>149</v>
       </c>
       <c r="E10" t="s">
-        <v>127</v>
+        <v>162</v>
       </c>
       <c r="F10" t="s">
-        <v>136</v>
+        <v>175</v>
       </c>
       <c r="G10" t="s">
-        <v>146</v>
+        <v>187</v>
       </c>
       <c r="H10" t="s">
-        <v>156</v>
+        <v>200</v>
       </c>
       <c r="I10" t="s">
-        <v>166</v>
+        <v>73</v>
       </c>
       <c r="J10" t="s">
-        <v>175</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2039,31 +2432,127 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>118</v>
+        <v>150</v>
       </c>
       <c r="E11" t="s">
-        <v>51</v>
+        <v>163</v>
       </c>
       <c r="F11" t="s">
-        <v>137</v>
+        <v>176</v>
       </c>
       <c r="G11" t="s">
-        <v>147</v>
+        <v>188</v>
       </c>
       <c r="H11" t="s">
-        <v>157</v>
+        <v>201</v>
       </c>
       <c r="I11" t="s">
-        <v>167</v>
+        <v>212</v>
       </c>
       <c r="J11" t="s">
-        <v>176</v>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D12" t="s">
+        <v>151</v>
+      </c>
+      <c r="E12" t="s">
+        <v>164</v>
+      </c>
+      <c r="F12" t="s">
+        <v>177</v>
+      </c>
+      <c r="G12" t="s">
+        <v>189</v>
+      </c>
+      <c r="H12" t="s">
+        <v>202</v>
+      </c>
+      <c r="I12" t="s">
+        <v>213</v>
+      </c>
+      <c r="J12" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>139</v>
+      </c>
+      <c r="D13" t="s">
+        <v>152</v>
+      </c>
+      <c r="E13" t="s">
+        <v>165</v>
+      </c>
+      <c r="F13" t="s">
+        <v>178</v>
+      </c>
+      <c r="G13" t="s">
+        <v>190</v>
+      </c>
+      <c r="H13" t="s">
+        <v>203</v>
+      </c>
+      <c r="I13" t="s">
+        <v>214</v>
+      </c>
+      <c r="J13" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>131</v>
+      </c>
+      <c r="C14" t="s">
+        <v>140</v>
+      </c>
+      <c r="D14" t="s">
+        <v>153</v>
+      </c>
+      <c r="E14" t="s">
+        <v>166</v>
+      </c>
+      <c r="F14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G14" t="s">
+        <v>191</v>
+      </c>
+      <c r="H14" t="s">
+        <v>204</v>
+      </c>
+      <c r="I14" t="s">
+        <v>215</v>
+      </c>
+      <c r="J14" t="s">
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -2073,7 +2562,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2113,31 +2602,31 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>187</v>
+        <v>240</v>
       </c>
       <c r="E2" t="s">
-        <v>196</v>
+        <v>252</v>
       </c>
       <c r="F2" t="s">
-        <v>196</v>
+        <v>264</v>
       </c>
       <c r="G2" t="s">
-        <v>214</v>
+        <v>277</v>
       </c>
       <c r="H2" t="s">
-        <v>223</v>
+        <v>290</v>
       </c>
       <c r="I2" t="s">
-        <v>233</v>
+        <v>303</v>
       </c>
       <c r="J2" t="s">
-        <v>242</v>
+        <v>315</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2145,31 +2634,31 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>229</v>
       </c>
       <c r="C3" t="s">
-        <v>180</v>
+        <v>232</v>
       </c>
       <c r="D3" t="s">
-        <v>188</v>
+        <v>241</v>
       </c>
       <c r="E3" t="s">
-        <v>197</v>
+        <v>253</v>
       </c>
       <c r="F3" t="s">
-        <v>205</v>
+        <v>265</v>
       </c>
       <c r="G3" t="s">
-        <v>215</v>
+        <v>278</v>
       </c>
       <c r="H3" t="s">
-        <v>224</v>
+        <v>291</v>
       </c>
       <c r="I3" t="s">
-        <v>234</v>
+        <v>304</v>
       </c>
       <c r="J3" t="s">
-        <v>243</v>
+        <v>316</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2177,31 +2666,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>177</v>
+        <v>230</v>
       </c>
       <c r="C4" t="s">
-        <v>181</v>
+        <v>233</v>
       </c>
       <c r="D4" t="s">
-        <v>189</v>
+        <v>242</v>
       </c>
       <c r="E4" t="s">
-        <v>198</v>
+        <v>254</v>
       </c>
       <c r="F4" t="s">
-        <v>206</v>
+        <v>266</v>
       </c>
       <c r="G4" t="s">
-        <v>121</v>
+        <v>279</v>
       </c>
       <c r="H4" t="s">
-        <v>225</v>
+        <v>292</v>
       </c>
       <c r="I4" t="s">
-        <v>41</v>
+        <v>305</v>
       </c>
       <c r="J4" t="s">
-        <v>231</v>
+        <v>317</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2209,31 +2698,31 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>178</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>190</v>
+        <v>240</v>
       </c>
       <c r="E5" t="s">
-        <v>199</v>
+        <v>255</v>
       </c>
       <c r="F5" t="s">
-        <v>207</v>
+        <v>267</v>
       </c>
       <c r="G5" t="s">
-        <v>216</v>
+        <v>280</v>
       </c>
       <c r="H5" t="s">
-        <v>226</v>
+        <v>293</v>
       </c>
       <c r="I5" t="s">
-        <v>235</v>
+        <v>306</v>
       </c>
       <c r="J5" t="s">
-        <v>244</v>
+        <v>318</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2241,31 +2730,31 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>178</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>182</v>
+        <v>234</v>
       </c>
       <c r="D6" t="s">
-        <v>191</v>
+        <v>243</v>
       </c>
       <c r="E6" t="s">
-        <v>200</v>
+        <v>256</v>
       </c>
       <c r="F6" t="s">
-        <v>208</v>
+        <v>268</v>
       </c>
       <c r="G6" t="s">
-        <v>217</v>
+        <v>281</v>
       </c>
       <c r="H6" t="s">
-        <v>227</v>
+        <v>294</v>
       </c>
       <c r="I6" t="s">
-        <v>236</v>
+        <v>307</v>
       </c>
       <c r="J6" t="s">
-        <v>245</v>
+        <v>319</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2273,31 +2762,31 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>183</v>
+        <v>235</v>
       </c>
       <c r="D7" t="s">
-        <v>192</v>
+        <v>244</v>
       </c>
       <c r="E7" t="s">
-        <v>201</v>
+        <v>257</v>
       </c>
       <c r="F7" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="G7" t="s">
-        <v>218</v>
+        <v>282</v>
       </c>
       <c r="H7" t="s">
-        <v>228</v>
+        <v>295</v>
       </c>
       <c r="I7" t="s">
-        <v>237</v>
+        <v>308</v>
       </c>
       <c r="J7" t="s">
-        <v>246</v>
+        <v>320</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2305,31 +2794,31 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>179</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>193</v>
+        <v>245</v>
       </c>
       <c r="E8" t="s">
-        <v>202</v>
+        <v>258</v>
       </c>
       <c r="F8" t="s">
-        <v>210</v>
+        <v>270</v>
       </c>
       <c r="G8" t="s">
-        <v>219</v>
+        <v>283</v>
       </c>
       <c r="H8" t="s">
-        <v>229</v>
+        <v>296</v>
       </c>
       <c r="I8" t="s">
-        <v>238</v>
+        <v>309</v>
       </c>
       <c r="J8" t="s">
-        <v>247</v>
+        <v>321</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2337,31 +2826,31 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>179</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>184</v>
+        <v>236</v>
       </c>
       <c r="D9" t="s">
-        <v>194</v>
+        <v>246</v>
       </c>
       <c r="E9" t="s">
-        <v>203</v>
+        <v>259</v>
       </c>
       <c r="F9" t="s">
-        <v>211</v>
+        <v>271</v>
       </c>
       <c r="G9" t="s">
-        <v>220</v>
+        <v>284</v>
       </c>
       <c r="H9" t="s">
-        <v>230</v>
+        <v>297</v>
       </c>
       <c r="I9" t="s">
-        <v>239</v>
+        <v>310</v>
       </c>
       <c r="J9" t="s">
-        <v>248</v>
+        <v>322</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2369,31 +2858,31 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>185</v>
+        <v>237</v>
       </c>
       <c r="D10" t="s">
-        <v>189</v>
+        <v>247</v>
       </c>
       <c r="E10" t="s">
-        <v>204</v>
+        <v>237</v>
       </c>
       <c r="F10" t="s">
-        <v>212</v>
+        <v>272</v>
       </c>
       <c r="G10" t="s">
-        <v>221</v>
+        <v>285</v>
       </c>
       <c r="H10" t="s">
-        <v>231</v>
+        <v>298</v>
       </c>
       <c r="I10" t="s">
-        <v>240</v>
+        <v>311</v>
       </c>
       <c r="J10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2401,31 +2890,127 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>186</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>195</v>
+        <v>248</v>
       </c>
       <c r="E11" t="s">
-        <v>51</v>
+        <v>260</v>
       </c>
       <c r="F11" t="s">
-        <v>213</v>
+        <v>273</v>
       </c>
       <c r="G11" t="s">
-        <v>222</v>
+        <v>286</v>
       </c>
       <c r="H11" t="s">
-        <v>232</v>
+        <v>299</v>
       </c>
       <c r="I11" t="s">
-        <v>241</v>
+        <v>312</v>
       </c>
       <c r="J11" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>238</v>
+      </c>
+      <c r="D12" t="s">
+        <v>249</v>
+      </c>
+      <c r="E12" t="s">
+        <v>261</v>
+      </c>
+      <c r="F12" t="s">
+        <v>274</v>
+      </c>
+      <c r="G12" t="s">
+        <v>287</v>
+      </c>
+      <c r="H12" t="s">
+        <v>300</v>
+      </c>
+      <c r="I12" t="s">
+        <v>313</v>
+      </c>
+      <c r="J12" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>239</v>
+      </c>
+      <c r="D13" t="s">
         <v>250</v>
+      </c>
+      <c r="E13" t="s">
+        <v>262</v>
+      </c>
+      <c r="F13" t="s">
+        <v>275</v>
+      </c>
+      <c r="G13" t="s">
+        <v>288</v>
+      </c>
+      <c r="H13" t="s">
+        <v>301</v>
+      </c>
+      <c r="I13" t="s">
+        <v>230</v>
+      </c>
+      <c r="J13" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>231</v>
+      </c>
+      <c r="C14" t="s">
+        <v>140</v>
+      </c>
+      <c r="D14" t="s">
+        <v>251</v>
+      </c>
+      <c r="E14" t="s">
+        <v>263</v>
+      </c>
+      <c r="F14" t="s">
+        <v>276</v>
+      </c>
+      <c r="G14" t="s">
+        <v>289</v>
+      </c>
+      <c r="H14" t="s">
+        <v>302</v>
+      </c>
+      <c r="I14" t="s">
+        <v>314</v>
+      </c>
+      <c r="J14" t="s">
+        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -2435,7 +3020,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2475,31 +3060,31 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>259</v>
+        <v>337</v>
       </c>
       <c r="E2" t="s">
-        <v>268</v>
+        <v>348</v>
       </c>
       <c r="F2" t="s">
-        <v>277</v>
+        <v>361</v>
       </c>
       <c r="G2" t="s">
-        <v>286</v>
+        <v>372</v>
       </c>
       <c r="H2" t="s">
-        <v>296</v>
+        <v>385</v>
       </c>
       <c r="I2" t="s">
-        <v>306</v>
+        <v>398</v>
       </c>
       <c r="J2" t="s">
-        <v>316</v>
+        <v>411</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2507,31 +3092,31 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>327</v>
       </c>
       <c r="C3" t="s">
-        <v>254</v>
+        <v>329</v>
       </c>
       <c r="D3" t="s">
-        <v>260</v>
+        <v>338</v>
       </c>
       <c r="E3" t="s">
-        <v>269</v>
+        <v>349</v>
       </c>
       <c r="F3" t="s">
-        <v>269</v>
+        <v>362</v>
       </c>
       <c r="G3" t="s">
-        <v>287</v>
+        <v>373</v>
       </c>
       <c r="H3" t="s">
-        <v>297</v>
+        <v>386</v>
       </c>
       <c r="I3" t="s">
-        <v>307</v>
+        <v>399</v>
       </c>
       <c r="J3" t="s">
-        <v>317</v>
+        <v>412</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2539,31 +3124,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>251</v>
+        <v>328</v>
       </c>
       <c r="C4" t="s">
-        <v>255</v>
+        <v>330</v>
       </c>
       <c r="D4" t="s">
-        <v>261</v>
+        <v>96</v>
       </c>
       <c r="E4" t="s">
-        <v>270</v>
+        <v>350</v>
       </c>
       <c r="F4" t="s">
-        <v>278</v>
+        <v>363</v>
       </c>
       <c r="G4" t="s">
-        <v>288</v>
+        <v>374</v>
       </c>
       <c r="H4" t="s">
-        <v>298</v>
+        <v>387</v>
       </c>
       <c r="I4" t="s">
-        <v>308</v>
+        <v>400</v>
       </c>
       <c r="J4" t="s">
-        <v>318</v>
+        <v>413</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2571,31 +3156,31 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>252</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>262</v>
+        <v>337</v>
       </c>
       <c r="E5" t="s">
-        <v>271</v>
+        <v>351</v>
       </c>
       <c r="F5" t="s">
-        <v>279</v>
+        <v>364</v>
       </c>
       <c r="G5" t="s">
-        <v>289</v>
+        <v>375</v>
       </c>
       <c r="H5" t="s">
-        <v>299</v>
+        <v>388</v>
       </c>
       <c r="I5" t="s">
-        <v>309</v>
+        <v>401</v>
       </c>
       <c r="J5" t="s">
-        <v>319</v>
+        <v>414</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2603,31 +3188,31 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>252</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>256</v>
+        <v>331</v>
       </c>
       <c r="D6" t="s">
-        <v>263</v>
+        <v>339</v>
       </c>
       <c r="E6" t="s">
-        <v>272</v>
+        <v>352</v>
       </c>
       <c r="F6" t="s">
-        <v>280</v>
+        <v>365</v>
       </c>
       <c r="G6" t="s">
-        <v>290</v>
+        <v>376</v>
       </c>
       <c r="H6" t="s">
-        <v>300</v>
+        <v>389</v>
       </c>
       <c r="I6" t="s">
-        <v>310</v>
+        <v>402</v>
       </c>
       <c r="J6" t="s">
-        <v>320</v>
+        <v>415</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2635,31 +3220,31 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>257</v>
+        <v>332</v>
       </c>
       <c r="D7" t="s">
-        <v>106</v>
+        <v>340</v>
       </c>
       <c r="E7" t="s">
-        <v>273</v>
+        <v>353</v>
       </c>
       <c r="F7" t="s">
-        <v>281</v>
+        <v>366</v>
       </c>
       <c r="G7" t="s">
-        <v>291</v>
+        <v>377</v>
       </c>
       <c r="H7" t="s">
-        <v>301</v>
+        <v>390</v>
       </c>
       <c r="I7" t="s">
-        <v>311</v>
+        <v>403</v>
       </c>
       <c r="J7" t="s">
-        <v>321</v>
+        <v>416</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2667,31 +3252,31 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>253</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>264</v>
+        <v>341</v>
       </c>
       <c r="E8" t="s">
-        <v>274</v>
+        <v>354</v>
       </c>
       <c r="F8" t="s">
-        <v>282</v>
+        <v>367</v>
       </c>
       <c r="G8" t="s">
-        <v>292</v>
+        <v>378</v>
       </c>
       <c r="H8" t="s">
-        <v>302</v>
+        <v>391</v>
       </c>
       <c r="I8" t="s">
-        <v>312</v>
+        <v>404</v>
       </c>
       <c r="J8" t="s">
-        <v>122</v>
+        <v>417</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2699,31 +3284,31 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>253</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>258</v>
+        <v>333</v>
       </c>
       <c r="D9" t="s">
-        <v>265</v>
+        <v>342</v>
       </c>
       <c r="E9" t="s">
-        <v>275</v>
+        <v>355</v>
       </c>
       <c r="F9" t="s">
-        <v>283</v>
+        <v>368</v>
       </c>
       <c r="G9" t="s">
-        <v>293</v>
+        <v>379</v>
       </c>
       <c r="H9" t="s">
-        <v>303</v>
+        <v>392</v>
       </c>
       <c r="I9" t="s">
-        <v>313</v>
+        <v>405</v>
       </c>
       <c r="J9" t="s">
-        <v>322</v>
+        <v>418</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2731,31 +3316,31 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="D10" t="s">
-        <v>266</v>
+        <v>343</v>
       </c>
       <c r="E10" t="s">
-        <v>276</v>
+        <v>356</v>
       </c>
       <c r="F10" t="s">
-        <v>284</v>
+        <v>356</v>
       </c>
       <c r="G10" t="s">
-        <v>294</v>
+        <v>380</v>
       </c>
       <c r="H10" t="s">
-        <v>304</v>
+        <v>393</v>
       </c>
       <c r="I10" t="s">
-        <v>314</v>
+        <v>406</v>
       </c>
       <c r="J10" t="s">
-        <v>323</v>
+        <v>419</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2763,31 +3348,127 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>267</v>
+        <v>344</v>
       </c>
       <c r="E11" t="s">
-        <v>51</v>
+        <v>357</v>
       </c>
       <c r="F11" t="s">
-        <v>285</v>
+        <v>369</v>
       </c>
       <c r="G11" t="s">
-        <v>295</v>
+        <v>381</v>
       </c>
       <c r="H11" t="s">
-        <v>305</v>
+        <v>394</v>
       </c>
       <c r="I11" t="s">
-        <v>315</v>
+        <v>407</v>
       </c>
       <c r="J11" t="s">
-        <v>324</v>
+        <v>420</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>334</v>
+      </c>
+      <c r="D12" t="s">
+        <v>345</v>
+      </c>
+      <c r="E12" t="s">
+        <v>358</v>
+      </c>
+      <c r="F12" t="s">
+        <v>370</v>
+      </c>
+      <c r="G12" t="s">
+        <v>382</v>
+      </c>
+      <c r="H12" t="s">
+        <v>395</v>
+      </c>
+      <c r="I12" t="s">
+        <v>408</v>
+      </c>
+      <c r="J12" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>335</v>
+      </c>
+      <c r="D13" t="s">
+        <v>346</v>
+      </c>
+      <c r="E13" t="s">
+        <v>359</v>
+      </c>
+      <c r="F13" t="s">
+        <v>371</v>
+      </c>
+      <c r="G13" t="s">
+        <v>383</v>
+      </c>
+      <c r="H13" t="s">
+        <v>396</v>
+      </c>
+      <c r="I13" t="s">
+        <v>409</v>
+      </c>
+      <c r="J13" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>231</v>
+      </c>
+      <c r="C14" t="s">
+        <v>336</v>
+      </c>
+      <c r="D14" t="s">
+        <v>347</v>
+      </c>
+      <c r="E14" t="s">
+        <v>360</v>
+      </c>
+      <c r="F14" t="s">
+        <v>276</v>
+      </c>
+      <c r="G14" t="s">
+        <v>384</v>
+      </c>
+      <c r="H14" t="s">
+        <v>397</v>
+      </c>
+      <c r="I14" t="s">
+        <v>410</v>
+      </c>
+      <c r="J14" t="s">
+        <v>423</v>
       </c>
     </row>
   </sheetData>
